--- a/dietaryindex_SCORING_ALGORITHM.xlsx
+++ b/dietaryindex_SCORING_ALGORITHM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6603F-C725-2E43-8AE9-FB85D11739D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B944ED3-C9F7-2F45-AEBA-A7444C3060A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="500" windowWidth="24620" windowHeight="19400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12940" yWindow="820" windowWidth="24620" windowHeight="19400" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2020" sheetId="18" r:id="rId1"/>
@@ -1833,7 +1833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2654,6 +2654,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2662,6 +2665,174 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2673,177 +2844,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3194,11 +3194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184C0948-E756-E040-A146-F3B3FA932BCF}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H17"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" style="8" customWidth="1"/>
@@ -3209,7 +3209,7 @@
     <col min="7" max="7" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
         <v>497</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="G1" s="107"/>
       <c r="H1" s="107"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="32">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H4" s="106"/>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="H5" s="106"/>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>315</v>
       </c>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="H6" s="106"/>
     </row>
-    <row r="7" spans="1:8" ht="32">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H7" s="106"/>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="H8" s="106"/>
     </row>
-    <row r="9" spans="1:8" ht="32">
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>312</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H9" s="106"/>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>306</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H10" s="106"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="H11" s="106"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>311</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="H15" s="106"/>
     </row>
-    <row r="16" spans="1:8" ht="48">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="H16" s="106"/>
     </row>
-    <row r="17" spans="1:8" ht="32">
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -3585,10 +3585,10 @@
       </c>
       <c r="H17" s="106"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="32">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C19" s="9" t="s">
         <v>494</v>
       </c>
@@ -3599,17 +3599,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="107" t="s">
         <v>498</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="G23" s="107"/>
       <c r="H23" s="107"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="32">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="H26" s="106"/>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H27" s="106"/>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H28" s="106"/>
     </row>
-    <row r="29" spans="1:8" ht="32">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>314</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="H29" s="106"/>
     </row>
-    <row r="30" spans="1:8" ht="48">
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H30" s="106"/>
     </row>
-    <row r="31" spans="1:8" ht="32">
+    <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>312</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H31" s="106"/>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>306</v>
       </c>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="H32" s="106"/>
     </row>
-    <row r="33" spans="1:8" ht="16">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="H33" s="106"/>
     </row>
-    <row r="34" spans="1:8" ht="32">
+    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H34" s="106"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="106"/>
     </row>
-    <row r="36" spans="1:8" ht="16">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>311</v>
       </c>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="H36" s="106"/>
     </row>
-    <row r="37" spans="1:8" ht="16">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H37" s="106"/>
     </row>
-    <row r="38" spans="1:8" ht="48">
+    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>310</v>
       </c>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H38" s="106"/>
     </row>
-    <row r="39" spans="1:8" ht="32">
+    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -3985,10 +3985,10 @@
       </c>
       <c r="H39" s="106"/>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1">
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="32">
+    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="s">
         <v>494</v>
       </c>
@@ -3999,12 +3999,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>513</v>
       </c>
@@ -4029,7 +4029,7 @@
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
@@ -4044,7 +4044,7 @@
     <col min="15" max="15" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="48">
+    <row r="1" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="48">
+    <row r="2" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="32">
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="32">
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="32">
+    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="32">
+    <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>-2.36</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="32">
+    <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>-3.37</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="32">
+    <row r="8" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>-8.8699999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="32">
+    <row r="9" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="32">
+    <row r="10" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="32">
+    <row r="11" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="32">
+    <row r="12" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="32">
+    <row r="13" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="32">
+    <row r="14" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="32">
+    <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="32">
+    <row r="16" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="32">
+    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="32">
+    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="32">
+    <row r="19" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="32">
+    <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="32">
+    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="32">
+    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="32">
+    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="32">
+    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="32">
+    <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="32">
+    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="32">
+    <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="32">
+    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="32">
+    <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="32">
+    <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="32">
+    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>173</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="32">
+    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="32">
+    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="32">
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="32">
+    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="32">
+    <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="32">
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="32">
+    <row r="38" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="32">
+    <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>181</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="32">
+    <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="32">
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="32">
+    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="32">
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="32">
+    <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="32">
+    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="32">
+    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -6023,12 +6023,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -6044,11 +6044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60FBCB0-5448-FF4D-B42D-5906F654A994}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="8" customWidth="1"/>
@@ -6058,7 +6058,7 @@
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="32">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="81.75" customHeight="1">
+    <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
         <v>210</v>
@@ -6126,7 +6126,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="65.25" customHeight="1">
+    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>213</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="64">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
@@ -6164,7 +6164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="69.75" customHeight="1">
+    <row r="8" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75" customHeight="1">
+    <row r="9" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64">
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>226</v>
       </c>
@@ -6224,13 +6224,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="F11" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="91.5" customHeight="1">
+    <row r="12" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>222</v>
       </c>
@@ -6250,10 +6250,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
         <v>494</v>
       </c>
@@ -6264,17 +6264,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
     </row>
   </sheetData>
@@ -6294,7 +6294,7 @@
       <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="8" customWidth="1"/>
@@ -6304,7 +6304,7 @@
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="32">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="81.75" customHeight="1">
+    <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
         <v>210</v>
@@ -6372,7 +6372,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.75" customHeight="1">
+    <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>213</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="64">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
@@ -6410,7 +6410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72" customHeight="1">
+    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="68.25" customHeight="1">
+    <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64">
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>226</v>
       </c>
@@ -6470,13 +6470,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1">
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="F11" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="128">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>222</v>
       </c>
@@ -6496,12 +6496,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
         <v>494</v>
       </c>
@@ -6512,17 +6512,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
     </row>
   </sheetData>
@@ -6545,7 +6545,7 @@
       <selection pane="bottomRight" activeCell="A95" sqref="A95:A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
@@ -6557,32 +6557,32 @@
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1" ht="30">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="s">
         <v>362</v>
       </c>
       <c r="B1" s="78" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="166"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="31" thickBot="1">
-      <c r="A2" s="163"/>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="121"/>
       <c r="B2" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="49" thickBot="1">
-      <c r="A3" s="164"/>
+    <row r="3" spans="1:6" s="29" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
       <c r="B3" s="26" t="s">
         <v>366</v>
       </c>
@@ -6599,14 +6599,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="169" t="s">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="129" t="s">
         <v>372</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="131">
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -6617,27 +6617,27 @@
       </c>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1">
-      <c r="A5" s="170"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="160"/>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="33" t="s">
         <v>375</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="117" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="114" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="116" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="114" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="118" t="s">
         <v>379</v>
       </c>
       <c r="E6" s="93" t="s">
@@ -6647,11 +6647,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="144"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="158"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="95" t="s">
         <v>381</v>
       </c>
@@ -6659,11 +6659,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="158"/>
+    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="95" t="s">
         <v>382</v>
       </c>
@@ -6671,17 +6671,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="135" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="133" t="s">
         <v>383</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="131" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="137">
-        <v>0</v>
-      </c>
-      <c r="D9" s="137" t="s">
+      <c r="C9" s="131">
+        <v>0</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>385</v>
       </c>
       <c r="E9" s="34" t="s">
@@ -6691,11 +6691,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="36" t="s">
         <v>387</v>
       </c>
@@ -6703,11 +6703,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="136"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="36" t="s">
         <v>388</v>
       </c>
@@ -6715,19 +6715,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="136"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="134"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="36" t="s">
         <v>389</v>
       </c>
@@ -6735,11 +6735,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="36" t="s">
         <v>390</v>
       </c>
@@ -6747,11 +6747,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="36" t="s">
         <v>391</v>
       </c>
@@ -6759,11 +6759,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="136"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="134"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="36" t="s">
         <v>392</v>
       </c>
@@ -6771,11 +6771,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="136"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="36" t="s">
         <v>393</v>
       </c>
@@ -6783,11 +6783,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="136"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="36" t="s">
         <v>394</v>
       </c>
@@ -6795,11 +6795,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="136"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="36" t="s">
         <v>395</v>
       </c>
@@ -6807,11 +6807,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="136"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="36" t="s">
         <v>396</v>
       </c>
@@ -6819,11 +6819,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="136"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="36" t="s">
         <v>397</v>
       </c>
@@ -6831,11 +6831,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="136"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="36" t="s">
         <v>398</v>
       </c>
@@ -6843,11 +6843,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="136"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="36" t="s">
         <v>399</v>
       </c>
@@ -6855,11 +6855,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="136"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="36" t="s">
         <v>400</v>
       </c>
@@ -6867,11 +6867,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="136"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="36" t="s">
         <v>401</v>
       </c>
@@ -6879,11 +6879,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="136"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="36" t="s">
         <v>402</v>
       </c>
@@ -6891,11 +6891,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="136"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="134"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="36" t="s">
         <v>403</v>
       </c>
@@ -6903,11 +6903,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="136"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="36" t="s">
         <v>404</v>
       </c>
@@ -6915,11 +6915,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="136"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="36" t="s">
         <v>405</v>
       </c>
@@ -6927,11 +6927,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="136"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="36" t="s">
         <v>406</v>
       </c>
@@ -6939,11 +6939,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="136"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="36" t="s">
         <v>407</v>
       </c>
@@ -6951,11 +6951,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="136"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="36" t="s">
         <v>408</v>
       </c>
@@ -6963,11 +6963,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="136"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="36" t="s">
         <v>409</v>
       </c>
@@ -6975,21 +6975,21 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16">
-      <c r="A34" s="136"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="134"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="36"/>
       <c r="F34" s="38"/>
       <c r="G34" s="8"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="136"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="134"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="36" t="s">
         <v>410</v>
       </c>
@@ -6997,19 +6997,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="136"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="134"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="36"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="136"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="36" t="s">
         <v>411</v>
       </c>
@@ -7017,11 +7017,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="136"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="134"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="36" t="s">
         <v>412</v>
       </c>
@@ -7029,11 +7029,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16" thickBot="1">
-      <c r="A39" s="161"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
+    <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="136"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="40" t="s">
         <v>413</v>
       </c>
@@ -7041,17 +7041,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17">
-      <c r="A40" s="135" t="s">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="133" t="s">
         <v>414</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="131" t="s">
         <v>415</v>
       </c>
-      <c r="C40" s="137">
-        <v>0</v>
-      </c>
-      <c r="D40" s="137" t="s">
+      <c r="C40" s="131">
+        <v>0</v>
+      </c>
+      <c r="D40" s="131" t="s">
         <v>416</v>
       </c>
       <c r="E40" s="42" t="s">
@@ -7061,19 +7061,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16">
-      <c r="A41" s="136"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
       <c r="E41" s="44"/>
       <c r="F41" s="45"/>
     </row>
-    <row r="42" spans="1:8" ht="17">
-      <c r="A42" s="136"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="134"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="44" t="s">
         <v>418</v>
       </c>
@@ -7081,11 +7081,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17">
-      <c r="A43" s="136"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="44" t="s">
         <v>419</v>
       </c>
@@ -7093,11 +7093,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="44" t="s">
         <v>420</v>
       </c>
@@ -7105,11 +7105,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17">
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="44" t="s">
         <v>421</v>
       </c>
@@ -7117,11 +7117,11 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="44" t="s">
         <v>422</v>
       </c>
@@ -7129,11 +7129,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
       <c r="E47" s="44" t="s">
         <v>423</v>
       </c>
@@ -7141,11 +7141,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
       <c r="E48" s="44" t="s">
         <v>424</v>
       </c>
@@ -7153,19 +7153,19 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
       <c r="E49" s="44"/>
       <c r="F49" s="45"/>
     </row>
-    <row r="50" spans="1:6" ht="17">
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
       <c r="E50" s="44" t="s">
         <v>425</v>
       </c>
@@ -7173,11 +7173,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17">
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
       <c r="E51" s="44" t="s">
         <v>426</v>
       </c>
@@ -7185,11 +7185,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="34">
+    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
       <c r="E52" s="44" t="s">
         <v>427</v>
       </c>
@@ -7197,11 +7197,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="34">
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
       <c r="E53" s="44" t="s">
         <v>428</v>
       </c>
@@ -7209,11 +7209,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17">
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
       <c r="E54" s="44" t="s">
         <v>429</v>
       </c>
@@ -7221,19 +7221,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="44"/>
       <c r="F55" s="37"/>
     </row>
-    <row r="56" spans="1:6" ht="17">
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
       <c r="E56" s="44" t="s">
         <v>430</v>
       </c>
@@ -7241,27 +7241,27 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
       <c r="E57" s="44"/>
       <c r="F57" s="45"/>
     </row>
-    <row r="58" spans="1:6" ht="16">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
       <c r="E58" s="44"/>
       <c r="F58" s="45"/>
     </row>
-    <row r="59" spans="1:6" ht="17">
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
       <c r="E59" s="44" t="s">
         <v>431</v>
       </c>
@@ -7269,11 +7269,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17">
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
       <c r="E60" s="44" t="s">
         <v>432</v>
       </c>
@@ -7281,11 +7281,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17">
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
       <c r="E61" s="44" t="s">
         <v>433</v>
       </c>
@@ -7293,31 +7293,31 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
       <c r="E62" s="44"/>
       <c r="F62" s="45"/>
     </row>
-    <row r="63" spans="1:6" ht="16">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
       <c r="E63" s="44"/>
       <c r="F63" s="45"/>
     </row>
-    <row r="64" spans="1:6" ht="17" thickBot="1">
+    <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="46"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="160"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
       <c r="E64" s="47"/>
       <c r="F64" s="48"/>
     </row>
-    <row r="65" spans="1:6" s="49" customFormat="1" ht="149.25" customHeight="1" thickBot="1">
+    <row r="65" spans="1:6" s="49" customFormat="1" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="80" t="s">
         <v>434</v>
       </c>
@@ -7330,22 +7330,22 @@
       <c r="D65" s="92" t="s">
         <v>437</v>
       </c>
-      <c r="E65" s="152" t="s">
+      <c r="E65" s="137" t="s">
         <v>438</v>
       </c>
-      <c r="F65" s="153"/>
-    </row>
-    <row r="66" spans="1:6" ht="29.75" customHeight="1">
-      <c r="A66" s="117" t="s">
+      <c r="F65" s="138"/>
+    </row>
+    <row r="66" spans="1:6" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="114" t="s">
         <v>439</v>
       </c>
-      <c r="B66" s="119" t="s">
+      <c r="B66" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="C66" s="154" t="s">
+      <c r="C66" s="141" t="s">
         <v>441</v>
       </c>
-      <c r="D66" s="157" t="s">
+      <c r="D66" s="118" t="s">
         <v>442</v>
       </c>
       <c r="E66" s="50" t="s">
@@ -7355,19 +7355,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16">
-      <c r="A67" s="144"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="158"/>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="119"/>
       <c r="E67" s="52"/>
       <c r="F67" s="53"/>
     </row>
-    <row r="68" spans="1:6" ht="16">
-      <c r="A68" s="144"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="158"/>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="115"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="119"/>
       <c r="E68" s="52" t="s">
         <v>444</v>
       </c>
@@ -7375,19 +7375,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16">
-      <c r="A69" s="144"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="158"/>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="115"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="119"/>
       <c r="E69" s="52"/>
       <c r="F69" s="53"/>
     </row>
-    <row r="70" spans="1:6" ht="16">
-      <c r="A70" s="144"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="158"/>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="115"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="119"/>
       <c r="E70" s="52" t="s">
         <v>445</v>
       </c>
@@ -7395,11 +7395,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16">
-      <c r="A71" s="144"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="158"/>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="115"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="119"/>
       <c r="E71" s="52" t="s">
         <v>446</v>
       </c>
@@ -7407,19 +7407,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16">
-      <c r="A72" s="144"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="158"/>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="115"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="119"/>
       <c r="E72" s="52"/>
       <c r="F72" s="53"/>
     </row>
-    <row r="73" spans="1:6" ht="16">
-      <c r="A73" s="144"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="155"/>
-      <c r="D73" s="158"/>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="115"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="119"/>
       <c r="E73" s="52" t="s">
         <v>447</v>
       </c>
@@ -7427,19 +7427,19 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16">
-      <c r="A74" s="144"/>
-      <c r="B74" s="145"/>
-      <c r="C74" s="155"/>
-      <c r="D74" s="158"/>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="115"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="119"/>
       <c r="E74" s="52"/>
       <c r="F74" s="53"/>
     </row>
-    <row r="75" spans="1:6" ht="17" thickBot="1">
-      <c r="A75" s="118"/>
-      <c r="B75" s="120"/>
-      <c r="C75" s="156"/>
-      <c r="D75" s="159"/>
+    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="139"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="144"/>
       <c r="E75" s="54" t="s">
         <v>448</v>
       </c>
@@ -7447,27 +7447,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="29.5" customHeight="1">
-      <c r="A76" s="117" t="s">
+    <row r="76" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="114" t="s">
         <v>449</v>
       </c>
-      <c r="B76" s="119" t="s">
+      <c r="B76" s="116" t="s">
         <v>450</v>
       </c>
-      <c r="C76" s="149" t="s">
+      <c r="C76" s="148" t="s">
         <v>441</v>
       </c>
-      <c r="D76" s="146" t="s">
+      <c r="D76" s="145" t="s">
         <v>451</v>
       </c>
       <c r="E76" s="82"/>
       <c r="F76" s="83"/>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="144"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="150"/>
-      <c r="D77" s="147"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="115"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="146"/>
       <c r="E77" s="84" t="s">
         <v>452</v>
       </c>
@@ -7475,11 +7475,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="118"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="148"/>
+    <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="139"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="150"/>
+      <c r="D78" s="147"/>
       <c r="E78" s="86" t="s">
         <v>453</v>
       </c>
@@ -7487,17 +7487,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1">
-      <c r="A79" s="117" t="s">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="114" t="s">
         <v>454</v>
       </c>
-      <c r="B79" s="119" t="s">
+      <c r="B79" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="116" t="s">
         <v>456</v>
       </c>
-      <c r="D79" s="146" t="s">
+      <c r="D79" s="145" t="s">
         <v>457</v>
       </c>
       <c r="E79" s="88" t="s">
@@ -7507,33 +7507,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="144"/>
-      <c r="B80" s="145"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="147"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="115"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="146"/>
       <c r="E80" s="84"/>
       <c r="F80" s="90"/>
     </row>
-    <row r="81" spans="1:7" ht="16" thickBot="1">
-      <c r="A81" s="118"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="148"/>
+    <row r="81" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="139"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="147"/>
       <c r="E81" s="86"/>
       <c r="F81" s="91"/>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="127" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="153" t="s">
         <v>460</v>
       </c>
-      <c r="C82" s="141">
-        <v>0</v>
-      </c>
-      <c r="D82" s="141" t="s">
+      <c r="C82" s="155">
+        <v>0</v>
+      </c>
+      <c r="D82" s="155" t="s">
         <v>461</v>
       </c>
       <c r="E82" s="97" t="s">
@@ -7543,20 +7543,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="139"/>
-      <c r="B83" s="140"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="152"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="156"/>
       <c r="E83" s="99"/>
       <c r="F83" s="100"/>
       <c r="G83" s="56"/>
     </row>
-    <row r="84" spans="1:7" s="57" customFormat="1">
-      <c r="A84" s="139"/>
-      <c r="B84" s="140"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
+    <row r="84" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="152"/>
+      <c r="B84" s="154"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="156"/>
       <c r="E84" s="99" t="s">
         <v>463</v>
       </c>
@@ -7564,11 +7564,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="139"/>
-      <c r="B85" s="140"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="152"/>
+      <c r="B85" s="154"/>
+      <c r="C85" s="156"/>
+      <c r="D85" s="156"/>
       <c r="E85" s="99" t="s">
         <v>464</v>
       </c>
@@ -7576,11 +7576,11 @@
         <v>111.32</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" thickBot="1">
-      <c r="A86" s="139"/>
-      <c r="B86" s="140"/>
-      <c r="C86" s="142"/>
-      <c r="D86" s="143"/>
+    <row r="86" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="152"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="157"/>
       <c r="E86" s="101" t="s">
         <v>465</v>
       </c>
@@ -7588,17 +7588,17 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="43.75" customHeight="1">
-      <c r="A87" s="135" t="s">
+    <row r="87" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="133" t="s">
         <v>466</v>
       </c>
-      <c r="B87" s="135" t="s">
+      <c r="B87" s="133" t="s">
         <v>467</v>
       </c>
-      <c r="C87" s="137">
-        <v>0</v>
-      </c>
-      <c r="D87" s="137" t="s">
+      <c r="C87" s="131">
+        <v>0</v>
+      </c>
+      <c r="D87" s="131" t="s">
         <v>468</v>
       </c>
       <c r="E87" s="58" t="s">
@@ -7608,11 +7608,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16">
-      <c r="A88" s="136"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="134"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
       <c r="E88" s="60" t="s">
         <v>470</v>
       </c>
@@ -7620,19 +7620,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16">
-      <c r="A89" s="136"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="138"/>
-      <c r="D89" s="138"/>
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="134"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="135"/>
+      <c r="D89" s="135"/>
       <c r="E89" s="60"/>
       <c r="F89" s="61"/>
     </row>
-    <row r="90" spans="1:7" ht="16">
-      <c r="A90" s="136"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="138"/>
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="134"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
       <c r="E90" s="62" t="s">
         <v>471</v>
       </c>
@@ -7640,15 +7640,15 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" thickBot="1">
-      <c r="A91" s="136"/>
-      <c r="B91" s="136"/>
-      <c r="C91" s="138"/>
-      <c r="D91" s="138"/>
+    <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="134"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="135"/>
+      <c r="D91" s="135"/>
       <c r="E91" s="62"/>
       <c r="F91" s="63"/>
     </row>
-    <row r="92" spans="1:7" ht="94" customHeight="1" thickBot="1">
+    <row r="92" spans="1:7" ht="94" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
         <v>477</v>
       </c>
@@ -7666,43 +7666,43 @@
       </c>
       <c r="F92" s="72"/>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="117" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="114" t="s">
         <v>482</v>
       </c>
-      <c r="B93" s="119" t="s">
+      <c r="B93" s="116" t="s">
         <v>483</v>
       </c>
-      <c r="C93" s="119" t="s">
+      <c r="C93" s="116" t="s">
         <v>484</v>
       </c>
-      <c r="D93" s="119" t="s">
+      <c r="D93" s="116" t="s">
         <v>485</v>
       </c>
-      <c r="E93" s="113" t="s">
+      <c r="E93" s="170" t="s">
         <v>486</v>
       </c>
-      <c r="F93" s="114"/>
-    </row>
-    <row r="94" spans="1:7" ht="16" thickBot="1">
-      <c r="A94" s="118"/>
-      <c r="B94" s="120"/>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="115"/>
-      <c r="F94" s="116"/>
-    </row>
-    <row r="95" spans="1:7" ht="29.75" customHeight="1">
-      <c r="A95" s="117" t="s">
+      <c r="F93" s="171"/>
+    </row>
+    <row r="94" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="139"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="172"/>
+      <c r="F94" s="173"/>
+    </row>
+    <row r="95" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="114" t="s">
         <v>487</v>
       </c>
-      <c r="B95" s="119" t="s">
+      <c r="B95" s="116" t="s">
         <v>488</v>
       </c>
-      <c r="C95" s="119" t="s">
+      <c r="C95" s="116" t="s">
         <v>489</v>
       </c>
-      <c r="D95" s="119" t="s">
+      <c r="D95" s="116" t="s">
         <v>490</v>
       </c>
       <c r="E95" s="73" t="s">
@@ -7710,17 +7710,17 @@
       </c>
       <c r="F95" s="74"/>
     </row>
-    <row r="96" spans="1:7" ht="16" thickBot="1">
-      <c r="A96" s="118"/>
-      <c r="B96" s="120"/>
-      <c r="C96" s="120"/>
-      <c r="D96" s="120"/>
+    <row r="96" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="139"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
       <c r="E96" s="75" t="s">
         <v>492</v>
       </c>
       <c r="F96" s="76"/>
     </row>
-    <row r="97" spans="1:6" ht="49" thickBot="1">
+    <row r="97" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="103" t="s">
         <v>362</v>
       </c>
@@ -7740,17 +7740,17 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="43.75" customHeight="1">
-      <c r="A98" s="127" t="s">
+    <row r="98" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="151" t="s">
         <v>472</v>
       </c>
-      <c r="B98" s="129" t="s">
+      <c r="B98" s="165" t="s">
         <v>377</v>
       </c>
-      <c r="C98" s="131">
-        <v>0</v>
-      </c>
-      <c r="D98" s="133">
+      <c r="C98" s="153">
+        <v>0</v>
+      </c>
+      <c r="D98" s="168">
         <v>100</v>
       </c>
       <c r="E98" s="58" t="s">
@@ -7760,35 +7760,35 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17" thickBot="1">
-      <c r="A99" s="128"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="132"/>
-      <c r="D99" s="134"/>
+    <row r="99" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="164"/>
+      <c r="B99" s="166"/>
+      <c r="C99" s="167"/>
+      <c r="D99" s="169"/>
       <c r="E99" s="66"/>
       <c r="F99" s="67"/>
     </row>
-    <row r="100" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A100" s="121" t="s">
+    <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="158" t="s">
         <v>474</v>
       </c>
-      <c r="B100" s="121" t="s">
+      <c r="B100" s="158" t="s">
         <v>475</v>
       </c>
-      <c r="C100" s="123">
-        <v>0</v>
-      </c>
-      <c r="D100" s="125">
+      <c r="C100" s="160">
+        <v>0</v>
+      </c>
+      <c r="D100" s="162">
         <v>50</v>
       </c>
       <c r="E100" s="58"/>
       <c r="F100" s="59"/>
     </row>
-    <row r="101" spans="1:6" ht="17" thickBot="1">
-      <c r="A101" s="122"/>
-      <c r="B101" s="122"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="126"/>
+    <row r="101" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="159"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="163"/>
       <c r="E101" s="68" t="s">
         <v>476</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="32">
+    <row r="103" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
         <v>494</v>
       </c>
@@ -7809,6 +7809,52 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E93:F94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B64"/>
+    <mergeCell ref="C40:C64"/>
+    <mergeCell ref="D40:D64"/>
+    <mergeCell ref="A9:A39"/>
+    <mergeCell ref="B9:B39"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D9:D39"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
@@ -7818,52 +7864,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B64"/>
-    <mergeCell ref="C40:C64"/>
-    <mergeCell ref="D40:D64"/>
-    <mergeCell ref="A9:A39"/>
-    <mergeCell ref="B9:B39"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D9:D39"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="D66:D75"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E93:F94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7878,7 +7878,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="8" customWidth="1"/>
@@ -7888,7 +7888,7 @@
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>156</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>152</v>
       </c>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>166</v>
       </c>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>352</v>
       </c>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>353</v>
       </c>
@@ -8031,12 +8031,12 @@
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="32">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="105" t="s">
         <v>494</v>
       </c>
@@ -8047,20 +8047,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>349</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:6" s="173" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="173" t="s">
+    <row r="14" spans="1:6" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="109" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" style="8" customWidth="1"/>
@@ -8096,7 +8096,7 @@
     <col min="7" max="7" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="32">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="H3" s="106"/>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="H4" s="106"/>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="H5" s="106"/>
     </row>
-    <row r="6" spans="1:8" ht="32">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="H6" s="106"/>
     </row>
-    <row r="7" spans="1:8" ht="48">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="H7" s="106"/>
     </row>
-    <row r="8" spans="1:8" ht="32">
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="H8" s="106"/>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="H9" s="106"/>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="H10" s="106"/>
     </row>
-    <row r="11" spans="1:8" ht="32">
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="H11" s="106"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -8364,7 +8364,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>311</v>
       </c>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="1:8" ht="48">
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="H15" s="106"/>
     </row>
-    <row r="16" spans="1:8" ht="32">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -8460,10 +8460,10 @@
       </c>
       <c r="H16" s="106"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="32">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
         <v>494</v>
       </c>
@@ -8474,17 +8474,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
     </row>
   </sheetData>
@@ -8501,11 +8501,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="8" customWidth="1"/>
@@ -8517,7 +8517,7 @@
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="16">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="108"/>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="108"/>
     </row>
-    <row r="5" spans="1:8" ht="48">
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="108"/>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="108"/>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -8653,7 +8653,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="108"/>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="108"/>
     </row>
-    <row r="9" spans="1:8" ht="48">
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="108"/>
     </row>
-    <row r="10" spans="1:8" ht="320">
+    <row r="10" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>318</v>
       </c>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="G10" s="108"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8721,7 +8721,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="108"/>
     </row>
-    <row r="12" spans="1:8" ht="64" customHeight="1">
+    <row r="12" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -8741,10 +8741,10 @@
       <c r="G12" s="108"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
         <v>494</v>
       </c>
@@ -8756,18 +8756,18 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="173" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="173" t="s">
+    <row r="17" spans="1:1" s="109" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="109" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
@@ -8798,7 +8798,7 @@
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="32">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1">
+    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48">
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:6" ht="64">
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -8979,10 +8979,10 @@
       </c>
       <c r="F10" s="108"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F11" s="108"/>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>494</v>
       </c>
@@ -8993,12 +8993,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -9021,7 +9021,7 @@
       <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" customWidth="1"/>
@@ -9030,7 +9030,7 @@
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>301</v>
       </c>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:6" ht="48">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" ht="48">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>125</v>
       </c>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6" ht="32">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -9193,11 +9193,11 @@
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>494</v>
       </c>
@@ -9208,13 +9208,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="109" customFormat="1">
-      <c r="A13" s="109" t="s">
+    <row r="13" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="110" t="s">
         <v>262</v>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.1640625" style="6" customWidth="1"/>
@@ -9250,7 +9250,7 @@
     <col min="7" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>125</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="154" customHeight="1">
+    <row r="6" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="48">
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48">
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9470,12 +9470,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="9" t="s">
         <v>494</v>
       </c>
@@ -9486,32 +9486,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="110" customFormat="1">
-      <c r="A15" s="110" t="s">
+    <row r="15" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="111" customFormat="1">
-      <c r="A16" s="111" t="s">
+    <row r="16" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="112" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="111" customFormat="1">
-      <c r="A17" s="111" t="s">
+    <row r="17" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="112" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>346</v>
       </c>
@@ -9542,7 +9542,7 @@
       <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
@@ -9551,7 +9551,7 @@
     <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="80">
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>301</v>
       </c>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:6" ht="48">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6" ht="32">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" ht="64">
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>305</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="F10" s="108"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
         <v>494</v>
       </c>
@@ -9750,12 +9750,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -9778,7 +9778,7 @@
       <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="8" customWidth="1"/>
@@ -9791,7 +9791,7 @@
     <col min="16" max="37" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>279</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>253</v>
       </c>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" ht="48">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>287</v>
       </c>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" ht="48">
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6" ht="32">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>273</v>
       </c>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6" ht="48">
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>274</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="F10" s="108"/>
     </row>
-    <row r="11" spans="1:6" ht="38" customHeight="1">
+    <row r="11" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="F11" s="108"/>
     </row>
-    <row r="12" spans="1:6" ht="32">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>88</v>
       </c>
@@ -10011,11 +10011,11 @@
       </c>
       <c r="F12" s="108"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
         <v>494</v>
       </c>
@@ -10026,13 +10026,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="112" customFormat="1">
-      <c r="A16" s="112" t="s">
+    <row r="16" spans="1:6" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="113" t="s">
         <v>269</v>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="8" customWidth="1"/>
@@ -10070,7 +10070,7 @@
     <col min="16" max="37" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>279</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>253</v>
       </c>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" ht="48">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>287</v>
       </c>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" ht="48">
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6" ht="32">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>273</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6" ht="48">
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>274</v>
       </c>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="F10" s="108"/>
     </row>
-    <row r="11" spans="1:6" ht="38" customHeight="1">
+    <row r="11" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="F11" s="108"/>
     </row>
-    <row r="12" spans="1:6" ht="32">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>88</v>
       </c>
@@ -10290,12 +10290,12 @@
       </c>
       <c r="F12" s="108"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
         <v>494</v>
       </c>
@@ -10306,13 +10306,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="112" customFormat="1">
-      <c r="A16" s="112" t="s">
+    <row r="16" spans="1:6" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="113" t="s">
         <v>269</v>
       </c>
     </row>

--- a/dietaryindex_SCORING_ALGORITHM.xlsx
+++ b/dietaryindex_SCORING_ALGORITHM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508C73E-7888-6F42-A59C-FD6360DE84D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C8E44-176A-E94D-ADEC-F79BB938D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45600" yWindow="840" windowWidth="24620" windowHeight="19400" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="500" windowWidth="21180" windowHeight="19540" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2020" sheetId="18" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AHEI-2010" sheetId="3" r:id="rId3"/>
     <sheet name="AHEIP" sheetId="2" r:id="rId4"/>
     <sheet name="DASH" sheetId="9" r:id="rId5"/>
-    <sheet name="DASHI" sheetId="10" r:id="rId6"/>
+    <sheet name="DASHI" sheetId="20" r:id="rId6"/>
     <sheet name="MED" sheetId="7" r:id="rId7"/>
     <sheet name="MEDI" sheetId="6" r:id="rId8"/>
     <sheet name="MEDI_V2" sheetId="15" r:id="rId9"/>
@@ -26,7 +26,6 @@
     <sheet name="ACS 2020_V1" sheetId="13" r:id="rId11"/>
     <sheet name="ACS 2020_V2" sheetId="14" r:id="rId12"/>
     <sheet name="PHDI" sheetId="17" r:id="rId13"/>
-    <sheet name="CHH" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="494">
   <si>
     <t>Component</t>
   </si>
@@ -207,9 +206,6 @@
     <t>Criterion for minimum (0)</t>
   </si>
   <si>
-    <t>Criterion for maximum (10)</t>
-  </si>
-  <si>
     <t>Vegetables</t>
   </si>
   <si>
@@ -363,9 +359,6 @@
     <t>≥ Median</t>
   </si>
   <si>
-    <t>Criteria for minimum score of 0</t>
-  </si>
-  <si>
     <t>&lt; Median</t>
   </si>
   <si>
@@ -373,9 +366,6 @@
   </si>
   <si>
     <t>10-25 g/day</t>
-  </si>
-  <si>
-    <t>Criteria for maximum score of 1</t>
   </si>
   <si>
     <t>Whole Fruit + Fruit juice</t>
@@ -831,27 +821,12 @@
     <t>Nuts or seeds</t>
   </si>
   <si>
-    <t>1. https://www.nhlbi.nih.gov/education/dash-eating-plan</t>
-  </si>
-  <si>
-    <t>2. https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov</t>
-  </si>
-  <si>
     <t>From reference 1 and 2</t>
   </si>
   <si>
     <t>Plant oil + Animal fat added to foods, including butter, plant oil, and salad dressing</t>
   </si>
   <si>
-    <t>Poultry and fish</t>
-  </si>
-  <si>
-    <t>All poultry and fish</t>
-  </si>
-  <si>
-    <t>Sodium only, not sodium chloride</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -897,15 +872,6 @@
     <t>&lt; 1 servings/day</t>
   </si>
   <si>
-    <t>From reference 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant oil + Animal fat added to foods, including butter, plant oil, and salad dressing, not fats and oils originally in the foods </t>
-  </si>
-  <si>
-    <t>4. https://www.sciencedirect.com/science/article/pii/S0002822399004125</t>
-  </si>
-  <si>
     <t>Olive oil</t>
   </si>
   <si>
@@ -936,9 +902,6 @@
     <t>14 g pure alcohol = 1 serving (12 ounces of beer, 5 ounces of wine, or 1.5 ounces of hard liquor, such as vodka or whiskey)</t>
   </si>
   <si>
-    <t>Criterion for maximum (1)</t>
-  </si>
-  <si>
     <t>&lt; 3/7 servings/day</t>
   </si>
   <si>
@@ -988,12 +951,6 @@
   </si>
   <si>
     <t>Whole grain</t>
-  </si>
-  <si>
-    <t>Discretionary fat and oil</t>
-  </si>
-  <si>
-    <t>Sweet</t>
   </si>
   <si>
     <t>Sugar-sweetened beverage</t>
@@ -1085,99 +1042,9 @@
     </r>
   </si>
   <si>
-    <t>Sugars (eg, plain sugar, jams, syrup, frostings, gelatin dessert), Candy, Carbonated soft drinks, Sugared drinks, Salty snacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servings per 2000 kcal/day (1 serving = 1 cup of green leafy, 0.5 cup other vegetables (cooked or raw), 3/4 cup vegetable juice) </t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving =  1/3 cups of nuts, 2 tablespoons peanut butter, 1/2 cup cooked beans, 1/2 cup tofu)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 1 cup milk or yogurt, 1 1/2 oz natural cheese (e.g. Cheddar), 2 oz processed cheese (e.g. American))</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 2.5oz)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 1 tablespoon or 14 g)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = about 22 g)</t>
-  </si>
-  <si>
-    <t>mg per 2000 kcal/day</t>
-  </si>
-  <si>
-    <t>1% fat/skim milk + yogurt + low-fat ice cream and frozen yogurt + low-fat cheese</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = medium fruit (apple, banana, orange), 1/2 cup of chopped, cooked, or canned fruit, 3/4 cup fruit juice)</t>
-  </si>
-  <si>
-    <t>servings per 2000 kcal/day (1 serving = 1oz ready-to-eat cereal, 1 slice of bread, 1/2 cup cooked cereal, rice, or pasta)</t>
-  </si>
-  <si>
-    <t>3. https://www.dietaryguidelines.gov/sites/default/files/2019-05/1995%20Dietary%20Guidelines%20for%20Americans.pdf</t>
-  </si>
-  <si>
-    <t>From reference 1, 2, and 3</t>
-  </si>
-  <si>
-    <t>From reference 2 and 3</t>
-  </si>
-  <si>
-    <t>In the original DASH trial, 2100 kcal DASH diet had 7.5 servings of grains, and 54% of them were whole grain. Thus, ideal whole grain consumption should be 7.5 * 54% = 4.05. Whole grain is preferred here instead of total grain because using whole grain is more specific to distinguish people with a healthier eating pattern. From reference 2, 3, and 4</t>
-  </si>
-  <si>
-    <t>≥ 4</t>
-  </si>
-  <si>
-    <t>≥ 4/7</t>
-  </si>
-  <si>
-    <t>≥ 2</t>
-  </si>
-  <si>
-    <t>≥ 1.1</t>
-  </si>
-  <si>
-    <t>≥ 1.5</t>
-  </si>
-  <si>
-    <t>≤ 0.5</t>
-  </si>
-  <si>
-    <t>≥ 6</t>
-  </si>
-  <si>
-    <t>≤ 2.5</t>
-  </si>
-  <si>
-    <t>≤ 5/7</t>
-  </si>
-  <si>
-    <t>≥ 3000</t>
-  </si>
-  <si>
-    <t>≤ 1150</t>
-  </si>
-  <si>
-    <t>5. https://www.nejm.org/doi/full/10.1056/nejm200101043440101</t>
-  </si>
-  <si>
-    <t>From reference 2 and 5</t>
-  </si>
-  <si>
     <t>mg/day per 2000 kcal</t>
   </si>
   <si>
-    <t>1. https://www.ahajournals.org/doi/full/10.1161/CIRCULATIONAHA.122.059045</t>
-  </si>
-  <si>
-    <t>2. https://bmjopen.bmj.com/content/10/8/e036394.abstract</t>
-  </si>
-  <si>
     <t>% of total kcal</t>
   </si>
   <si>
@@ -1187,28 +1054,7 @@
     <t>Calcium</t>
   </si>
   <si>
-    <t>g/day</t>
-  </si>
-  <si>
     <t>75 (female), 90 (male)</t>
-  </si>
-  <si>
-    <t>≥ 60</t>
-  </si>
-  <si>
-    <t>≥ 17</t>
-  </si>
-  <si>
-    <t>≥ 30</t>
-  </si>
-  <si>
-    <t>≥ 3700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ≥ 500</t>
-  </si>
-  <si>
-    <t>≥ 1200</t>
   </si>
   <si>
     <t>Food group</t>
@@ -1827,6 +1673,87 @@
   </si>
   <si>
     <t>2. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4424776/</t>
+  </si>
+  <si>
+    <t>From reference 1, table S8 in the supplement</t>
+  </si>
+  <si>
+    <t>Minimum score: 0</t>
+  </si>
+  <si>
+    <t>Maximum score: 10</t>
+  </si>
+  <si>
+    <t>Maximum score: 5</t>
+  </si>
+  <si>
+    <t>Maximum score: 1</t>
+  </si>
+  <si>
+    <t>≥ 37</t>
+  </si>
+  <si>
+    <t>≤ 27</t>
+  </si>
+  <si>
+    <t>≤ 6</t>
+  </si>
+  <si>
+    <t>≥ 16</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>≥ 18</t>
+  </si>
+  <si>
+    <t>≤ 15</t>
+  </si>
+  <si>
+    <t>g/day per 2000 kcal</t>
+  </si>
+  <si>
+    <t>≥ 29.5</t>
+  </si>
+  <si>
+    <t>≤ 8.6</t>
+  </si>
+  <si>
+    <t>≥ 4476</t>
+  </si>
+  <si>
+    <t>≤ 1619</t>
+  </si>
+  <si>
+    <t>≤ 157</t>
+  </si>
+  <si>
+    <t>≥ 476</t>
+  </si>
+  <si>
+    <t>≥ 1181</t>
+  </si>
+  <si>
+    <t>≤ 429</t>
+  </si>
+  <si>
+    <t>≥ 285.7</t>
+  </si>
+  <si>
+    <t>≤ 142.8</t>
+  </si>
+  <si>
+    <t>≥ 2857</t>
+  </si>
+  <si>
+    <t>≤ 2286</t>
+  </si>
+  <si>
+    <t>1. https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov</t>
+  </si>
+  <si>
+    <t>2. https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/413957</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +1936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2086,6 +2013,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2639,9 +2572,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2655,9 +2589,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2701,6 +2632,12 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2722,9 +2659,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2835,9 +2769,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2869,7 +2800,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2423391</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>345209</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2878,7 +2809,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C90435-76F8-9FE7-F0E8-F8B8EBAA10E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A071EE-B672-CC44-AA11-3F60A61ECC65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7133936" y="6106391"/>
+          <a:off x="2626591" y="1526309"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3204,16 +3135,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="A1" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3226,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -3238,7 +3169,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3251,13 +3182,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="105" t="s">
-        <v>263</v>
+      <c r="H3" s="106" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>16</v>
@@ -3277,11 +3208,11 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="105"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
@@ -3301,11 +3232,11 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>19</v>
@@ -3325,11 +3256,11 @@
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -3349,17 +3280,17 @@
       <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -3373,17 +3304,17 @@
       <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="105"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -3397,11 +3328,11 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
@@ -3421,7 +3352,7 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="105"/>
+      <c r="H10" s="106"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3445,7 +3376,7 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="105"/>
+      <c r="H11" s="106"/>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3464,12 +3395,12 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -3481,11 +3412,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="105"/>
+      <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
@@ -3505,7 +3436,7 @@
       <c r="G14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="105"/>
+      <c r="H14" s="106"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3529,17 +3460,17 @@
       <c r="G15" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="105"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -3553,17 +3484,17 @@
       <c r="G16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="105"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -3577,14 +3508,14 @@
       <c r="G17" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="105"/>
+      <c r="H17" s="106"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C19" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -3595,25 +3526,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="106" t="s">
-        <v>498</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="A23" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -3626,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>3</v>
@@ -3638,7 +3569,7 @@
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3651,13 +3582,13 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="105" t="s">
-        <v>263</v>
+      <c r="H25" s="106" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>16</v>
@@ -3672,16 +3603,16 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="105"/>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>18</v>
@@ -3696,16 +3627,16 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="105"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>19</v>
@@ -3720,16 +3651,16 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="105"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>20</v>
@@ -3744,22 +3675,22 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="105"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -3768,22 +3699,22 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="105"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
@@ -3792,16 +3723,16 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="105"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>6</v>
@@ -3821,7 +3752,7 @@
       <c r="G32" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="105"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -3840,12 +3771,12 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="105"/>
+      <c r="H33" s="106"/>
     </row>
     <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -3864,12 +3795,12 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>505</v>
-      </c>
-      <c r="H34" s="105"/>
+        <v>454</v>
+      </c>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
@@ -3881,11 +3812,11 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="105"/>
+      <c r="H35" s="106"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
@@ -3900,12 +3831,12 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="G36" t="s">
-        <v>507</v>
-      </c>
-      <c r="H36" s="105"/>
+        <v>456</v>
+      </c>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -3927,19 +3858,19 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>508</v>
-      </c>
-      <c r="H37" s="105"/>
+        <v>457</v>
+      </c>
+      <c r="H37" s="106"/>
     </row>
     <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
@@ -3948,22 +3879,22 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="G38" t="s">
-        <v>510</v>
-      </c>
-      <c r="H38" s="105"/>
+        <v>459</v>
+      </c>
+      <c r="H38" s="106"/>
     </row>
     <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D39" s="8">
         <v>0</v>
@@ -3972,19 +3903,19 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="G39" t="s">
-        <v>512</v>
-      </c>
-      <c r="H39" s="105"/>
+        <v>461</v>
+      </c>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
@@ -3995,12 +3926,12 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4040,72 +3971,72 @@
   <sheetData>
     <row r="1" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="G1" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4123,37 +4054,37 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="T2">
         <v>100</v>
@@ -4162,7 +4093,7 @@
         <v>7.98</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="X2">
         <v>-8.8699999999999992</v>
@@ -4173,10 +4104,10 @@
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C3">
         <v>0.106</v>
@@ -4191,31 +4122,31 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T3">
         <v>90</v>
@@ -4226,10 +4157,10 @@
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C4">
         <v>-0.36499999999999999</v>
@@ -4244,25 +4175,25 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T4">
         <v>75</v>
@@ -4273,10 +4204,10 @@
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>-0.58399999999999996</v>
@@ -4291,25 +4222,25 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T5">
         <v>50</v>
@@ -4320,7 +4251,7 @@
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4338,25 +4269,25 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T6">
         <v>25</v>
@@ -4367,7 +4298,7 @@
     </row>
     <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4385,25 +4316,25 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -4414,10 +4345,10 @@
     </row>
     <row r="8" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8">
         <v>0.11</v>
@@ -4432,25 +4363,25 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4461,10 +4392,10 @@
     </row>
     <row r="9" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9">
         <v>0.18</v>
@@ -4479,33 +4410,33 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10">
         <v>-0.14000000000000001</v>
@@ -4520,30 +4451,30 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4561,30 +4492,30 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4602,33 +4533,33 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C13">
         <v>-0.19</v>
@@ -4643,30 +4574,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -4684,30 +4615,30 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4725,33 +4656,33 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16">
         <v>3.2000000000000001E-2</v>
@@ -4766,33 +4697,33 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17">
         <v>-0.48399999999999999</v>
@@ -4807,30 +4738,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -4848,33 +4779,33 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <v>-0.246</v>
@@ -4889,30 +4820,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -4930,30 +4861,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -4971,30 +4902,30 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -5012,30 +4943,30 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -5053,30 +4984,30 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -5094,33 +5025,33 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25">
         <v>-6.8000000000000005E-2</v>
@@ -5135,30 +5066,30 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -5176,30 +5107,30 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -5217,33 +5148,33 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C28">
         <v>-0.191</v>
@@ -5258,33 +5189,33 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C29">
         <v>-9.8000000000000004E-2</v>
@@ -5299,30 +5230,30 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -5340,33 +5271,33 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C31">
         <v>-0.78500000000000003</v>
@@ -5381,33 +5312,33 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C32">
         <v>-0.40100000000000002</v>
@@ -5422,33 +5353,33 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C33">
         <v>-0.42399999999999999</v>
@@ -5463,33 +5394,33 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
       <c r="L33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34">
         <v>-0.44600000000000001</v>
@@ -5504,33 +5435,33 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35">
         <v>-0.41899999999999998</v>
@@ -5545,33 +5476,33 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K35">
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36">
         <v>-0.313</v>
@@ -5586,30 +5517,30 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -5627,33 +5558,33 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C38">
         <v>-0.41499999999999998</v>
@@ -5668,33 +5599,33 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C39">
         <v>-0.61599999999999999</v>
@@ -5709,33 +5640,33 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
       <c r="L39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40">
         <v>-0.46700000000000003</v>
@@ -5750,33 +5681,33 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K40">
         <v>2</v>
       </c>
       <c r="L40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41">
         <v>-0.25</v>
@@ -5791,33 +5722,33 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42">
         <v>-0.13100000000000001</v>
@@ -5832,33 +5763,33 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C43">
         <v>-0.59299999999999997</v>
@@ -5873,30 +5804,30 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -5914,33 +5845,33 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K44">
         <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
         <v>187</v>
-      </c>
-      <c r="B45" t="s">
-        <v>190</v>
       </c>
       <c r="C45">
         <v>-0.10199999999999999</v>
@@ -5955,33 +5886,33 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K45">
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46">
         <v>-1.2999999999999999E-2</v>
@@ -5996,35 +5927,35 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K46">
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6057,19 +5988,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6084,13 +6015,13 @@
     </row>
     <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6099,16 +6030,16 @@
         <v>0.75</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6117,18 +6048,18 @@
         <v>0.75</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6137,16 +6068,16 @@
         <v>0.75</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6155,7 +6086,7 @@
         <v>0.75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6163,10 +6094,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6175,18 +6106,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6195,18 +6126,18 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6215,24 +6146,24 @@
         <v>1.5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="F11" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6241,7 +6172,7 @@
         <v>1.5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6249,7 +6180,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -6260,12 +6191,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
@@ -6303,19 +6234,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6330,13 +6261,13 @@
     </row>
     <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6345,16 +6276,16 @@
         <v>0.75</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6363,18 +6294,18 @@
         <v>0.75</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6383,16 +6314,16 @@
         <v>0.75</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6401,7 +6332,7 @@
         <v>0.75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6409,10 +6340,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6421,18 +6352,18 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6441,18 +6372,18 @@
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6461,24 +6392,24 @@
         <v>1.5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="F11" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6487,7 +6418,7 @@
         <v>1.5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6497,7 +6428,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -6508,12 +6439,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
@@ -6536,7 +6467,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40:C64"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6553,13 +6484,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="D1" s="123"/>
       <c r="E1" s="23"/>
@@ -6568,7 +6499,7 @@
     <row r="2" spans="1:6" s="25" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120"/>
       <c r="B2" s="78" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="125"/>
@@ -6578,64 +6509,64 @@
     <row r="3" spans="1:6" s="29" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="121"/>
       <c r="B3" s="26" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="F3" s="103" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="171" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="128">
+      <c r="A4" s="126" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="130">
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="129"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="33" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="113" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="B6" s="115" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="F6" s="93">
         <v>112</v>
@@ -6647,7 +6578,7 @@
       <c r="C7" s="114"/>
       <c r="D7" s="118"/>
       <c r="E7" s="94" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="F7" s="95">
         <v>210</v>
@@ -6659,429 +6590,429 @@
       <c r="C8" s="114"/>
       <c r="D8" s="118"/>
       <c r="E8" s="94" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="F8" s="95">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
-        <v>383</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="128">
-        <v>0</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>385</v>
+      <c r="A9" s="132" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="130">
+        <v>0</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>334</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="F9" s="35">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="36" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="F10" s="37">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="36" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="F11" s="37">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="36" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F13" s="37">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="36" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="F14" s="37">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="131"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="36" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="F15" s="37">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="36" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="F16" s="37">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="36" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="F17" s="37">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="36" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="F18" s="37">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="131"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="36" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="F19" s="37">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="36" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="F20" s="37">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="36" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="F21" s="38">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="36" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="F22" s="38">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="36" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="F23" s="38">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="36" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="F24" s="37">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="36" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="F25" s="37">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="36" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="F26" s="37">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="36" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="F27" s="37">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="36" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="F28" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="36" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="F29" s="37">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="131"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="36" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="F30" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="131"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="36" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="F31" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="36" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="F32" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="131"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="36" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="F33" s="38">
         <v>37.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="131"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="36"/>
       <c r="F34" s="38"/>
       <c r="G34" s="8"/>
       <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="36" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="F35" s="38">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="36"/>
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="36" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="F37" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="131"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="36" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="F38" s="37">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
       <c r="E39" s="40" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="F39" s="41">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="130" t="s">
-        <v>414</v>
-      </c>
-      <c r="B40" s="128" t="s">
-        <v>415</v>
-      </c>
-      <c r="C40" s="128">
-        <v>0</v>
-      </c>
-      <c r="D40" s="128" t="s">
-        <v>416</v>
+      <c r="A40" s="132" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="130" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="130">
+        <v>0</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>365</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="F40" s="43">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="44"/>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="44" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="F42" s="37">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="131"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="44" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="F43" s="37">
         <v>114</v>
@@ -7089,11 +7020,11 @@
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="44" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="F44" s="37">
         <v>135</v>
@@ -7101,11 +7032,11 @@
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="44" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="F45" s="45">
         <v>100.5</v>
@@ -7113,11 +7044,11 @@
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="44" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="F46" s="45">
         <v>138</v>
@@ -7125,11 +7056,11 @@
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="44" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F47" s="45">
         <v>166</v>
@@ -7137,11 +7068,11 @@
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="44" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="F48" s="45">
         <v>127.5</v>
@@ -7149,19 +7080,19 @@
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
       <c r="E49" s="44"/>
       <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
       <c r="E50" s="44" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="F50" s="37">
         <v>131</v>
@@ -7169,11 +7100,11 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
       <c r="E51" s="44" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="F51" s="37">
         <v>120</v>
@@ -7181,11 +7112,11 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="44" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="F52" s="37">
         <v>75</v>
@@ -7193,11 +7124,11 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
-      <c r="D53" s="132"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
       <c r="E53" s="44" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="F53" s="37">
         <v>73</v>
@@ -7205,11 +7136,11 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="132"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
       <c r="E54" s="44" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="F54" s="37">
         <v>128</v>
@@ -7217,19 +7148,19 @@
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132"/>
-      <c r="D55" s="132"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
       <c r="E55" s="44"/>
       <c r="F55" s="37"/>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
       <c r="E56" s="44" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="F56" s="37">
         <v>241</v>
@@ -7237,27 +7168,27 @@
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
       <c r="E57" s="44"/>
       <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
       <c r="E58" s="44"/>
       <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
       <c r="E59" s="44" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="F59" s="45">
         <v>128</v>
@@ -7265,11 +7196,11 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
       <c r="E60" s="44" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="F60" s="45">
         <v>127</v>
@@ -7277,11 +7208,11 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
       <c r="E61" s="44" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="F61" s="45">
         <v>128</v>
@@ -7289,61 +7220,61 @@
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
       <c r="E62" s="44"/>
       <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="44"/>
       <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
-      <c r="B64" s="129"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="46"/>
       <c r="F64" s="47"/>
     </row>
     <row r="65" spans="1:6" s="48" customFormat="1" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="B65" s="80" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>437</v>
-      </c>
-      <c r="E65" s="134" t="s">
-        <v>438</v>
-      </c>
-      <c r="F65" s="135"/>
+        <v>386</v>
+      </c>
+      <c r="E65" s="135" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" s="136"/>
     </row>
     <row r="66" spans="1:6" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="113" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="B66" s="115" t="s">
-        <v>440</v>
-      </c>
-      <c r="C66" s="138" t="s">
-        <v>441</v>
+        <v>389</v>
+      </c>
+      <c r="C66" s="139" t="s">
+        <v>390</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="F66" s="50">
         <v>45</v>
@@ -7352,7 +7283,7 @@
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="114"/>
       <c r="B67" s="116"/>
-      <c r="C67" s="139"/>
+      <c r="C67" s="140"/>
       <c r="D67" s="118"/>
       <c r="E67" s="51"/>
       <c r="F67" s="52"/>
@@ -7360,10 +7291,10 @@
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="114"/>
       <c r="B68" s="116"/>
-      <c r="C68" s="139"/>
+      <c r="C68" s="140"/>
       <c r="D68" s="118"/>
       <c r="E68" s="51" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="F68" s="52">
         <v>13</v>
@@ -7372,7 +7303,7 @@
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="114"/>
       <c r="B69" s="116"/>
-      <c r="C69" s="139"/>
+      <c r="C69" s="140"/>
       <c r="D69" s="118"/>
       <c r="E69" s="51"/>
       <c r="F69" s="52"/>
@@ -7380,10 +7311,10 @@
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="114"/>
       <c r="B70" s="116"/>
-      <c r="C70" s="139"/>
+      <c r="C70" s="140"/>
       <c r="D70" s="118"/>
       <c r="E70" s="51" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="F70" s="52">
         <v>27</v>
@@ -7392,10 +7323,10 @@
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="114"/>
       <c r="B71" s="116"/>
-      <c r="C71" s="139"/>
+      <c r="C71" s="140"/>
       <c r="D71" s="118"/>
       <c r="E71" s="51" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="F71" s="52">
         <v>85</v>
@@ -7404,7 +7335,7 @@
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="114"/>
       <c r="B72" s="116"/>
-      <c r="C72" s="139"/>
+      <c r="C72" s="140"/>
       <c r="D72" s="118"/>
       <c r="E72" s="51"/>
       <c r="F72" s="52"/>
@@ -7412,10 +7343,10 @@
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="114"/>
       <c r="B73" s="116"/>
-      <c r="C73" s="139"/>
+      <c r="C73" s="140"/>
       <c r="D73" s="118"/>
       <c r="E73" s="51" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="F73" s="52">
         <v>85.4</v>
@@ -7424,18 +7355,18 @@
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="114"/>
       <c r="B74" s="116"/>
-      <c r="C74" s="139"/>
+      <c r="C74" s="140"/>
       <c r="D74" s="118"/>
       <c r="E74" s="51"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="136"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="141"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="142"/>
       <c r="E75" s="53" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="F75" s="54">
         <v>140</v>
@@ -7443,16 +7374,16 @@
     </row>
     <row r="76" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="113" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="B76" s="115" t="s">
-        <v>450</v>
-      </c>
-      <c r="C76" s="145" t="s">
-        <v>441</v>
-      </c>
-      <c r="D76" s="142" t="s">
-        <v>451</v>
+        <v>399</v>
+      </c>
+      <c r="C76" s="146" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" s="143" t="s">
+        <v>400</v>
       </c>
       <c r="E76" s="81"/>
       <c r="F76" s="82"/>
@@ -7460,22 +7391,22 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="114"/>
       <c r="B77" s="116"/>
-      <c r="C77" s="146"/>
-      <c r="D77" s="143"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="144"/>
       <c r="E77" s="83" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="F77" s="84">
         <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="136"/>
-      <c r="B78" s="137"/>
-      <c r="C78" s="147"/>
-      <c r="D78" s="144"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="138"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="85" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="F78" s="86">
         <v>140</v>
@@ -7483,19 +7414,19 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="113" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="B79" s="115" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="C79" s="115" t="s">
-        <v>456</v>
-      </c>
-      <c r="D79" s="142" t="s">
-        <v>457</v>
+        <v>405</v>
+      </c>
+      <c r="D79" s="143" t="s">
+        <v>406</v>
       </c>
       <c r="E79" s="87" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="F79" s="88">
         <v>50</v>
@@ -7505,286 +7436,286 @@
       <c r="A80" s="114"/>
       <c r="B80" s="116"/>
       <c r="C80" s="116"/>
-      <c r="D80" s="143"/>
+      <c r="D80" s="144"/>
       <c r="E80" s="83"/>
       <c r="F80" s="89"/>
     </row>
     <row r="81" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="136"/>
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="144"/>
+      <c r="A81" s="137"/>
+      <c r="B81" s="138"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="145"/>
       <c r="E81" s="85"/>
       <c r="F81" s="90"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="148" t="s">
-        <v>459</v>
-      </c>
-      <c r="B82" s="150" t="s">
-        <v>460</v>
-      </c>
-      <c r="C82" s="152">
-        <v>0</v>
-      </c>
-      <c r="D82" s="152" t="s">
-        <v>461</v>
+      <c r="A82" s="149" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="C82" s="153">
+        <v>0</v>
+      </c>
+      <c r="D82" s="153" t="s">
+        <v>410</v>
       </c>
       <c r="E82" s="96" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="F82" s="97">
         <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="149"/>
-      <c r="B83" s="151"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
+      <c r="A83" s="150"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="98"/>
       <c r="F83" s="99"/>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="149"/>
-      <c r="B84" s="151"/>
-      <c r="C84" s="153"/>
-      <c r="D84" s="153"/>
+      <c r="A84" s="150"/>
+      <c r="B84" s="152"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="98" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="F84" s="99">
         <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="149"/>
-      <c r="B85" s="151"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="153"/>
+      <c r="A85" s="150"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="98" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="F85" s="99">
         <v>111.32</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="149"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="153"/>
-      <c r="D86" s="154"/>
+      <c r="A86" s="150"/>
+      <c r="B86" s="152"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="155"/>
       <c r="E86" s="100" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="F86" s="101">
         <v>112.2</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="130" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" s="130" t="s">
-        <v>467</v>
-      </c>
-      <c r="C87" s="128">
-        <v>0</v>
-      </c>
-      <c r="D87" s="128" t="s">
-        <v>468</v>
+      <c r="A87" s="132" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" s="132" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" s="130">
+        <v>0</v>
+      </c>
+      <c r="D87" s="130" t="s">
+        <v>417</v>
       </c>
       <c r="E87" s="57" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="F87" s="58">
         <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="131"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
+      <c r="A88" s="133"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
       <c r="E88" s="59" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="F88" s="60">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="131"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="132"/>
+      <c r="A89" s="133"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
       <c r="E89" s="59"/>
       <c r="F89" s="60"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="131"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="132"/>
-      <c r="D90" s="132"/>
+      <c r="A90" s="133"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
       <c r="E90" s="61" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="F90" s="62">
         <v>28.4</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="131"/>
-      <c r="B91" s="131"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="132"/>
+      <c r="A91" s="133"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="61"/>
       <c r="F91" s="62"/>
     </row>
     <row r="92" spans="1:7" ht="94" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="63" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="D92" s="69" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="E92" s="70" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="F92" s="71"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="113" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="B93" s="115" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="C93" s="115" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="D93" s="115" t="s">
-        <v>485</v>
-      </c>
-      <c r="E93" s="167" t="s">
-        <v>486</v>
-      </c>
-      <c r="F93" s="168"/>
+        <v>434</v>
+      </c>
+      <c r="E93" s="168" t="s">
+        <v>435</v>
+      </c>
+      <c r="F93" s="169"/>
     </row>
     <row r="94" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="136"/>
-      <c r="B94" s="137"/>
-      <c r="C94" s="137"/>
-      <c r="D94" s="137"/>
-      <c r="E94" s="169"/>
-      <c r="F94" s="170"/>
+      <c r="A94" s="137"/>
+      <c r="B94" s="138"/>
+      <c r="C94" s="138"/>
+      <c r="D94" s="138"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="171"/>
     </row>
     <row r="95" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="113" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="B95" s="115" t="s">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="C95" s="115" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="D95" s="115" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="E95" s="72" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="F95" s="73"/>
     </row>
     <row r="96" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="136"/>
-      <c r="B96" s="137"/>
-      <c r="C96" s="137"/>
-      <c r="D96" s="137"/>
+      <c r="A96" s="137"/>
+      <c r="B96" s="138"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="138"/>
       <c r="E96" s="74" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
       <c r="F96" s="75"/>
     </row>
     <row r="97" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="102" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="E97" s="103" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="F97" s="103" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="148" t="s">
-        <v>472</v>
-      </c>
-      <c r="B98" s="162" t="s">
-        <v>377</v>
-      </c>
-      <c r="C98" s="150">
-        <v>0</v>
-      </c>
-      <c r="D98" s="165">
+      <c r="A98" s="149" t="s">
+        <v>421</v>
+      </c>
+      <c r="B98" s="163" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="151">
+        <v>0</v>
+      </c>
+      <c r="D98" s="166">
         <v>100</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="F98" s="58">
         <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="161"/>
-      <c r="B99" s="163"/>
-      <c r="C99" s="164"/>
-      <c r="D99" s="166"/>
+      <c r="A99" s="162"/>
+      <c r="B99" s="164"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="167"/>
       <c r="E99" s="65"/>
       <c r="F99" s="66"/>
     </row>
     <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="155" t="s">
-        <v>474</v>
-      </c>
-      <c r="B100" s="155" t="s">
-        <v>475</v>
-      </c>
-      <c r="C100" s="157">
-        <v>0</v>
-      </c>
-      <c r="D100" s="159">
+      <c r="A100" s="156" t="s">
+        <v>423</v>
+      </c>
+      <c r="B100" s="156" t="s">
+        <v>424</v>
+      </c>
+      <c r="C100" s="158">
+        <v>0</v>
+      </c>
+      <c r="D100" s="160">
         <v>50</v>
       </c>
       <c r="E100" s="57"/>
       <c r="F100" s="58"/>
     </row>
     <row r="101" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="156"/>
-      <c r="B101" s="156"/>
-      <c r="C101" s="158"/>
-      <c r="D101" s="160"/>
+      <c r="A101" s="157"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="159"/>
+      <c r="D101" s="161"/>
       <c r="E101" s="67" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="F101" s="68">
         <v>98</v>
@@ -7792,7 +7723,7 @@
     </row>
     <row r="103" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -7864,212 +7795,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1BF9D-9985-7C42-A941-F165A5DA75A9}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="20">
-        <v>33</v>
-      </c>
-      <c r="E2" s="20">
-        <v>25</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="20">
-        <v>50</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="107"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="20">
-        <v>13.5</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="107"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="F5" s="107"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="20">
-        <v>5900</v>
-      </c>
-      <c r="E6" s="20">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="107"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="F7" s="107"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="107"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="F9" s="107"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="C11" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:6" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="A14:XFD14"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://www.nejm.org/doi/full/10.1056/nejmoa1800389" xr:uid="{227518D9-BF6D-0743-967E-2E7C22E98C8B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6"/>
@@ -8101,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -8113,7 +7838,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8126,13 +7851,13 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="105" t="s">
-        <v>263</v>
+      <c r="H2" s="106" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -8152,11 +7877,11 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="106"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -8176,11 +7901,11 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="105"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -8200,11 +7925,11 @@
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>20</v>
@@ -8224,17 +7949,17 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -8248,17 +7973,17 @@
       <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -8272,11 +7997,11 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="105"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -8296,7 +8021,7 @@
       <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8320,7 +8045,7 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="105"/>
+      <c r="H10" s="106"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8339,12 +8064,12 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="105"/>
+        <v>134</v>
+      </c>
+      <c r="H11" s="106"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -8356,11 +8081,11 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="105"/>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
@@ -8380,7 +8105,7 @@
       <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="105"/>
+      <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -8404,17 +8129,17 @@
       <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="105"/>
+      <c r="H14" s="106"/>
     </row>
     <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -8428,17 +8153,17 @@
       <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="105"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -8452,14 +8177,14 @@
       <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="105"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -8470,12 +8195,12 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -8495,8 +8220,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8516,40 +8241,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="20">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="20"/>
-      <c r="G2" s="107" t="s">
-        <v>263</v>
+      <c r="G2" s="108" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -8557,67 +8282,67 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="107"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="20">
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="F4" s="21"/>
-      <c r="G4" s="107"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="107"/>
+      <c r="G5" s="108"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="20">
         <v>0</v>
@@ -8626,113 +8351,113 @@
         <v>250</v>
       </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="107"/>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="107"/>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="20">
         <v>0</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="107"/>
+      <c r="G8" s="108"/>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="20">
         <v>0</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="107"/>
+      <c r="G9" s="108"/>
     </row>
     <row r="10" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="G10" s="107"/>
+        <v>465</v>
+      </c>
+      <c r="G10" s="108"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="107"/>
+      <c r="G11" s="108"/>
     </row>
     <row r="12" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="107"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8740,7 +8465,7 @@
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -8752,17 +8477,17 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="108" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
-        <v>517</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="109" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="109" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -8781,7 +8506,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8792,44 +8517,44 @@
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>52</v>
+      <c r="D1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="20">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>263</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8837,148 +8562,148 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="107"/>
+        <v>64</v>
+      </c>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="20">
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="107"/>
+        <v>129</v>
+      </c>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="107"/>
+        <v>67</v>
+      </c>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="107"/>
+        <v>65</v>
+      </c>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="20">
         <v>0</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="107"/>
+        <v>72</v>
+      </c>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" s="20">
         <v>0</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="107"/>
+        <v>73</v>
+      </c>
+      <c r="F9" s="108"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="20">
         <v>0</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="107"/>
+        <v>74</v>
+      </c>
+      <c r="F10" s="108"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="107"/>
+      <c r="F11" s="108"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -8989,12 +8714,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -9012,7 +8737,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9029,163 +8754,163 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>263</v>
+      <c r="F2" s="108" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="107"/>
+        <v>109</v>
+      </c>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>109</v>
+      </c>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="107"/>
+        <v>109</v>
+      </c>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="107"/>
+        <v>109</v>
+      </c>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="107"/>
+        <v>108</v>
+      </c>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="107"/>
+        <v>108</v>
+      </c>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="107"/>
+        <v>108</v>
+      </c>
+      <c r="F9" s="108"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -9193,7 +8918,7 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -9204,12 +8929,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109" t="s">
-        <v>262</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="110" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -9226,21 +8951,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C3DB12-70FF-D141-9A0A-7105AE9A2303}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7016262-533B-E543-9C18-0D82A8C16647}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="22" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="6" customWidth="1"/>
     <col min="7" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
@@ -9249,281 +8974,227 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="105" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="20">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>123</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>475</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>478</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>328</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>488</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
+      <c r="D7" s="20" t="s">
+        <v>483</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>195</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>339</v>
+        <v>484</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>277</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>341</v>
+        <v>487</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>320</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>335</v>
+        <v>490</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="F10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="C13" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="111" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>346</v>
+        <v>491</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="111" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A16:XFD16"/>
+  <mergeCells count="1">
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" display="https://www.nhlbi.nih.gov/education/dash-eating-plan" xr:uid="{AEEB0C86-7AB6-A44F-A221-D1228D8D9F3D}"/>
-    <hyperlink ref="A16" r:id="rId2" display="https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov" xr:uid="{6C14B701-FBF3-DB4E-956D-A4957DECECE9}"/>
-    <hyperlink ref="A17" r:id="rId3" display="https://www.dietaryguidelines.gov/sites/default/files/2020-12/Dietary_Guidelines_for_Americans_2020-2025.pdf" xr:uid="{96847E56-A4F2-A945-9AB4-4CAE015C1EBA}"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.nejm.org/doi/10.1056/NEJM199704173361601?url_ver=Z39.88-2003&amp;rfr_id=ori:rid:crossref.org&amp;rfr_dat=cr_pub%20%200www.ncbi.nlm.nih.gov" xr:uid="{05696BFC-3ED3-224B-B40B-249585BA935D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9532,8 +9203,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9547,187 +9218,187 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>108</v>
+      <c r="D1" s="105" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>471</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>263</v>
+        <v>102</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="107"/>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="F9" s="108"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="107"/>
+        <v>105</v>
+      </c>
+      <c r="F10" s="108"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -9735,7 +9406,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -9746,12 +9417,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9768,8 +9439,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9787,223 +9458,223 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>289</v>
+      <c r="D1" s="105" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>471</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>276</v>
+        <v>287</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="107"/>
+        <v>263</v>
+      </c>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="107"/>
+        <v>263</v>
+      </c>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="107"/>
+        <v>263</v>
+      </c>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="107"/>
+        <v>244</v>
+      </c>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="107"/>
+        <v>282</v>
+      </c>
+      <c r="F9" s="108"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="107"/>
+        <v>283</v>
+      </c>
+      <c r="F10" s="108"/>
     </row>
     <row r="11" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F11" s="107"/>
+        <v>267</v>
+      </c>
+      <c r="F11" s="108"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="107"/>
+        <v>267</v>
+      </c>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
@@ -10011,7 +9682,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -10022,12 +9693,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="112" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -10047,8 +9718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83296475-74E5-3D45-AB2F-9EE78B86E077}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10066,10 +9737,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -10078,211 +9749,211 @@
         <v>51</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D2" s="20">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>276</v>
+        <v>287</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D4" s="20">
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="107"/>
+        <v>263</v>
+      </c>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D6" s="20">
         <v>0</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="107"/>
+        <v>263</v>
+      </c>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D7" s="20">
         <v>0</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="107"/>
+        <v>263</v>
+      </c>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D8" s="20">
         <v>0</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="107"/>
+        <v>244</v>
+      </c>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="108"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E10" s="20">
         <v>0</v>
       </c>
-      <c r="F10" s="107"/>
+      <c r="F10" s="108"/>
     </row>
     <row r="11" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E11" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="107"/>
+      <c r="F11" s="108"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="20">
         <v>0</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -10291,7 +9962,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -10302,12 +9973,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="112" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/dietaryindex_SCORING_ALGORITHM.xlsx
+++ b/dietaryindex_SCORING_ALGORITHM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex publication/Formal_publication/Major revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C8E44-176A-E94D-ADEC-F79BB938D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E07A8-75EE-424B-A5EF-D180D4B1310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="500" windowWidth="21180" windowHeight="19540" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11900" yWindow="2840" windowWidth="26000" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2020" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="494">
   <si>
     <t>Component</t>
   </si>
@@ -837,9 +837,6 @@
   </si>
   <si>
     <t>1. https://www.jandonline.org/article/S0002-8223(09)00288-0/fulltext</t>
-  </si>
-  <si>
-    <t>1. https://academic.oup.com/jn/article/142/6/1009/4688968?login=false</t>
   </si>
   <si>
     <t>1. https://www.fns.usda.gov/healthy-eating-index-hei</t>
@@ -1672,9 +1669,6 @@
     <t>trans fat is not calculated for NHANES given that NHANES does not include it in the nutrition datasets and trans fat concentration in foods is changing every year since 2005 (reference 2)</t>
   </si>
   <si>
-    <t>2. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4424776/</t>
-  </si>
-  <si>
     <t>From reference 1, table S8 in the supplement</t>
   </si>
   <si>
@@ -1754,6 +1748,12 @@
   </si>
   <si>
     <t>2. https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/413957</t>
+  </si>
+  <si>
+    <t>2. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3738221/</t>
+  </si>
+  <si>
+    <t>1. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3738221/</t>
   </si>
 </sst>
 </file>
@@ -2586,31 +2586,160 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2635,140 +2764,11 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3119,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184C0948-E756-E040-A146-F3B3FA932BCF}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H17"/>
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3136,7 +3136,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -3169,7 +3169,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>16</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>19</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>23</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C19" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -3531,12 +3531,12 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="107" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>16</v>
@@ -3603,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>18</v>
@@ -3627,7 +3627,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>19</v>
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>20</v>
@@ -3675,7 +3675,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>22</v>
@@ -3699,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>23</v>
@@ -3723,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>6</v>
@@ -3771,7 +3771,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3798,7 +3798,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H34" s="106"/>
     </row>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
@@ -3831,10 +3831,10 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
+        <v>454</v>
+      </c>
+      <c r="G36" t="s">
         <v>455</v>
-      </c>
-      <c r="G36" t="s">
-        <v>456</v>
       </c>
       <c r="H36" s="106"/>
     </row>
@@ -3858,13 +3858,13 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H37" s="106"/>
     </row>
     <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>11</v>
@@ -3879,10 +3879,10 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
+        <v>457</v>
+      </c>
+      <c r="G38" t="s">
         <v>458</v>
-      </c>
-      <c r="G38" t="s">
-        <v>459</v>
       </c>
       <c r="H38" s="106"/>
     </row>
@@ -3903,10 +3903,10 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>459</v>
+      </c>
+      <c r="G39" t="s">
         <v>460</v>
-      </c>
-      <c r="G39" t="s">
-        <v>461</v>
       </c>
       <c r="H39" s="106"/>
     </row>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3950,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C05161-9A17-7E4B-8481-331629413469}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4028,10 +4028,10 @@
         <v>199</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>7.98</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="X2">
         <v>-8.8699999999999992</v>
@@ -5954,14 +5954,17 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="15" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A50" r:id="rId1" xr:uid="{77153C7D-286B-BF42-9C1C-FC54EF5E3C26}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5969,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60FBCB0-5448-FF4D-B42D-5906F654A994}">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6180,7 +6183,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -6196,7 +6199,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
@@ -6428,7 +6431,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -6444,7 +6447,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
@@ -6463,8 +6466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C7AD3D-4B0E-3F40-9E23-03DC11FFBC9F}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
@@ -6483,536 +6486,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="162" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="165" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="122" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="123"/>
+      <c r="D1" s="166"/>
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
+      <c r="A2" s="163"/>
       <c r="B2" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
+        <v>313</v>
+      </c>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" s="29" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="F3" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="103" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
+      <c r="B4" s="170" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="C4" s="137">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="130">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="161"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="33" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="C6" s="117" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="D6" s="157" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="E6" s="92" t="s">
         <v>328</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>329</v>
       </c>
       <c r="F6" s="93">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="114"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="118"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="95">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="94" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="95">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="137" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="C9" s="137">
+        <v>0</v>
+      </c>
+      <c r="D9" s="137" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="130">
-        <v>0</v>
-      </c>
-      <c r="D9" s="130" t="s">
+      <c r="E9" s="34" t="s">
         <v>334</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>335</v>
       </c>
       <c r="F9" s="35">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" s="37">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="37">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F13" s="37">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F14" s="37">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F15" s="37">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F16" s="37">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F17" s="37">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F18" s="37">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F19" s="37">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F20" s="37">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F21" s="38">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F22" s="38">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F23" s="38">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F24" s="37">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F25" s="37">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F26" s="37">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
       <c r="E27" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F27" s="37">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
       <c r="E28" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F28" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F29" s="37">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="133"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F30" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F31" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F32" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F33" s="38">
         <v>37.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="36"/>
       <c r="F34" s="38"/>
       <c r="G34" s="8"/>
       <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F35" s="38">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="133"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="36"/>
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="133"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F37" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="133"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F38" s="37">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F39" s="41">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="135" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="137" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="C40" s="137">
+        <v>0</v>
+      </c>
+      <c r="D40" s="137" t="s">
         <v>364</v>
       </c>
-      <c r="C40" s="130">
-        <v>0</v>
-      </c>
-      <c r="D40" s="130" t="s">
+      <c r="E40" s="42" t="s">
         <v>365</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>366</v>
       </c>
       <c r="F40" s="43">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="133"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="44"/>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
       <c r="E42" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42" s="37">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="133"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
       <c r="E43" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F43" s="37">
         <v>114</v>
@@ -7020,11 +7023,11 @@
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
       <c r="E44" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F44" s="37">
         <v>135</v>
@@ -7032,11 +7035,11 @@
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
       <c r="E45" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F45" s="45">
         <v>100.5</v>
@@ -7044,11 +7047,11 @@
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F46" s="45">
         <v>138</v>
@@ -7056,11 +7059,11 @@
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F47" s="45">
         <v>166</v>
@@ -7068,11 +7071,11 @@
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
       <c r="E48" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48" s="45">
         <v>127.5</v>
@@ -7080,19 +7083,19 @@
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
       <c r="E49" s="44"/>
       <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
       <c r="E50" s="44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F50" s="37">
         <v>131</v>
@@ -7100,11 +7103,11 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
       <c r="E51" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F51" s="37">
         <v>120</v>
@@ -7112,11 +7115,11 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
       <c r="E52" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F52" s="37">
         <v>75</v>
@@ -7124,11 +7127,11 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F53" s="37">
         <v>73</v>
@@ -7136,11 +7139,11 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
       <c r="E54" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F54" s="37">
         <v>128</v>
@@ -7148,19 +7151,19 @@
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="138"/>
       <c r="E55" s="44"/>
       <c r="F55" s="37"/>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="138"/>
       <c r="E56" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F56" s="37">
         <v>241</v>
@@ -7168,27 +7171,27 @@
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
       <c r="E57" s="44"/>
       <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
       <c r="E58" s="44"/>
       <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
       <c r="E59" s="44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F59" s="45">
         <v>128</v>
@@ -7196,11 +7199,11 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
       <c r="E60" s="44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F60" s="45">
         <v>127</v>
@@ -7208,11 +7211,11 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="134"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
       <c r="E61" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F61" s="45">
         <v>128</v>
@@ -7220,502 +7223,502 @@
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
       <c r="E62" s="44"/>
       <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
       <c r="E63" s="44"/>
       <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="46"/>
       <c r="F64" s="47"/>
     </row>
     <row r="65" spans="1:6" s="48" customFormat="1" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="C65" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="D65" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="D65" s="91" t="s">
+      <c r="E65" s="152" t="s">
         <v>386</v>
       </c>
-      <c r="E65" s="135" t="s">
+      <c r="F65" s="153"/>
+    </row>
+    <row r="66" spans="1:6" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="117" t="s">
         <v>387</v>
       </c>
-      <c r="F65" s="136"/>
-    </row>
-    <row r="66" spans="1:6" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="113" t="s">
+      <c r="B66" s="119" t="s">
         <v>388</v>
       </c>
-      <c r="B66" s="115" t="s">
+      <c r="C66" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="C66" s="139" t="s">
+      <c r="D66" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="D66" s="117" t="s">
+      <c r="E66" s="49" t="s">
         <v>391</v>
-      </c>
-      <c r="E66" s="49" t="s">
-        <v>392</v>
       </c>
       <c r="F66" s="50">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="118"/>
+      <c r="A67" s="144"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="158"/>
       <c r="E67" s="51"/>
       <c r="F67" s="52"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="114"/>
-      <c r="B68" s="116"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="118"/>
+      <c r="A68" s="144"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="158"/>
       <c r="E68" s="51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F68" s="52">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="114"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="118"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="158"/>
       <c r="E69" s="51"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="114"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="118"/>
+      <c r="A70" s="144"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="155"/>
+      <c r="D70" s="158"/>
       <c r="E70" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F70" s="52">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="114"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="118"/>
+      <c r="A71" s="144"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="158"/>
       <c r="E71" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F71" s="52">
         <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="114"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="118"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="158"/>
       <c r="E72" s="51"/>
       <c r="F72" s="52"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="114"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="118"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="155"/>
+      <c r="D73" s="158"/>
       <c r="E73" s="51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F73" s="52">
         <v>85.4</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="114"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="118"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="158"/>
       <c r="E74" s="51"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="137"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="142"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="120"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="159"/>
       <c r="E75" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" s="54">
         <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="113" t="s">
+      <c r="A76" s="117" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" s="119" t="s">
         <v>398</v>
       </c>
-      <c r="B76" s="115" t="s">
+      <c r="C76" s="149" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="146" t="s">
         <v>399</v>
-      </c>
-      <c r="C76" s="146" t="s">
-        <v>390</v>
-      </c>
-      <c r="D76" s="143" t="s">
-        <v>400</v>
       </c>
       <c r="E76" s="81"/>
       <c r="F76" s="82"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="147"/>
-      <c r="D77" s="144"/>
+      <c r="A77" s="144"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="147"/>
       <c r="E77" s="83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F77" s="84">
         <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="137"/>
-      <c r="B78" s="138"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="145"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="151"/>
+      <c r="D78" s="148"/>
       <c r="E78" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F78" s="86">
         <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="113" t="s">
+      <c r="A79" s="117" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="119" t="s">
         <v>403</v>
       </c>
-      <c r="B79" s="115" t="s">
+      <c r="C79" s="119" t="s">
         <v>404</v>
       </c>
-      <c r="C79" s="115" t="s">
+      <c r="D79" s="146" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="143" t="s">
+      <c r="E79" s="87" t="s">
         <v>406</v>
-      </c>
-      <c r="E79" s="87" t="s">
-        <v>407</v>
       </c>
       <c r="F79" s="88">
         <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="114"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="144"/>
+      <c r="A80" s="144"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="147"/>
       <c r="E80" s="83"/>
       <c r="F80" s="89"/>
     </row>
     <row r="81" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="137"/>
-      <c r="B81" s="138"/>
-      <c r="C81" s="138"/>
-      <c r="D81" s="145"/>
+      <c r="A81" s="118"/>
+      <c r="B81" s="120"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="148"/>
       <c r="E81" s="85"/>
       <c r="F81" s="90"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="149" t="s">
+      <c r="A82" s="127" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" s="131" t="s">
         <v>408</v>
       </c>
-      <c r="B82" s="151" t="s">
+      <c r="C82" s="141">
+        <v>0</v>
+      </c>
+      <c r="D82" s="141" t="s">
         <v>409</v>
       </c>
-      <c r="C82" s="153">
-        <v>0</v>
-      </c>
-      <c r="D82" s="153" t="s">
+      <c r="E82" s="96" t="s">
         <v>410</v>
-      </c>
-      <c r="E82" s="96" t="s">
-        <v>411</v>
       </c>
       <c r="F82" s="97">
         <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="150"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
       <c r="E83" s="98"/>
       <c r="F83" s="99"/>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="150"/>
-      <c r="B84" s="152"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
+      <c r="A84" s="139"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
       <c r="E84" s="98" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F84" s="99">
         <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="150"/>
-      <c r="B85" s="152"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
+      <c r="A85" s="139"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
       <c r="E85" s="98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F85" s="99">
         <v>111.32</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="150"/>
-      <c r="B86" s="152"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="155"/>
+      <c r="A86" s="139"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="143"/>
       <c r="E86" s="100" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F86" s="101">
         <v>112.2</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="132" t="s">
+      <c r="A87" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="B87" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="B87" s="132" t="s">
+      <c r="C87" s="137">
+        <v>0</v>
+      </c>
+      <c r="D87" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="C87" s="130">
-        <v>0</v>
-      </c>
-      <c r="D87" s="130" t="s">
+      <c r="E87" s="57" t="s">
         <v>417</v>
-      </c>
-      <c r="E87" s="57" t="s">
-        <v>418</v>
       </c>
       <c r="F87" s="58">
         <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="133"/>
-      <c r="B88" s="133"/>
-      <c r="C88" s="134"/>
-      <c r="D88" s="134"/>
+      <c r="A88" s="136"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="138"/>
       <c r="E88" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F88" s="60">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="133"/>
-      <c r="B89" s="133"/>
-      <c r="C89" s="134"/>
-      <c r="D89" s="134"/>
+      <c r="A89" s="136"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="138"/>
+      <c r="D89" s="138"/>
       <c r="E89" s="59"/>
       <c r="F89" s="60"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="134"/>
-      <c r="D90" s="134"/>
+      <c r="A90" s="136"/>
+      <c r="B90" s="136"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="138"/>
       <c r="E90" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F90" s="62">
         <v>28.4</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="133"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="134"/>
-      <c r="D91" s="134"/>
+      <c r="A91" s="136"/>
+      <c r="B91" s="136"/>
+      <c r="C91" s="138"/>
+      <c r="D91" s="138"/>
       <c r="E91" s="61"/>
       <c r="F91" s="62"/>
     </row>
     <row r="92" spans="1:7" ht="94" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="B92" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="C92" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C92" s="64" t="s">
+      <c r="D92" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="E92" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="E92" s="70" t="s">
+      <c r="F92" s="71"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="117" t="s">
         <v>430</v>
       </c>
-      <c r="F92" s="71"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="113" t="s">
+      <c r="B93" s="119" t="s">
         <v>431</v>
       </c>
-      <c r="B93" s="115" t="s">
+      <c r="C93" s="119" t="s">
         <v>432</v>
       </c>
-      <c r="C93" s="115" t="s">
+      <c r="D93" s="119" t="s">
         <v>433</v>
       </c>
-      <c r="D93" s="115" t="s">
+      <c r="E93" s="113" t="s">
         <v>434</v>
       </c>
-      <c r="E93" s="168" t="s">
+      <c r="F93" s="114"/>
+    </row>
+    <row r="94" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="118"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="116"/>
+    </row>
+    <row r="95" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="117" t="s">
         <v>435</v>
       </c>
-      <c r="F93" s="169"/>
-    </row>
-    <row r="94" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="137"/>
-      <c r="B94" s="138"/>
-      <c r="C94" s="138"/>
-      <c r="D94" s="138"/>
-      <c r="E94" s="170"/>
-      <c r="F94" s="171"/>
-    </row>
-    <row r="95" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="113" t="s">
+      <c r="B95" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="B95" s="115" t="s">
+      <c r="C95" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="C95" s="115" t="s">
+      <c r="D95" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="D95" s="115" t="s">
+      <c r="E95" s="72" t="s">
         <v>439</v>
       </c>
-      <c r="E95" s="72" t="s">
+      <c r="F95" s="73"/>
+    </row>
+    <row r="96" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="118"/>
+      <c r="B96" s="120"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="74" t="s">
         <v>440</v>
-      </c>
-      <c r="F95" s="73"/>
-    </row>
-    <row r="96" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="137"/>
-      <c r="B96" s="138"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="138"/>
-      <c r="E96" s="74" t="s">
-        <v>441</v>
       </c>
       <c r="F96" s="75"/>
     </row>
     <row r="97" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B97" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C97" s="27" t="s">
-        <v>316</v>
-      </c>
       <c r="D97" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E97" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="F97" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="F97" s="103" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="98" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="149" t="s">
+      <c r="A98" s="127" t="s">
+        <v>420</v>
+      </c>
+      <c r="B98" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="131">
+        <v>0</v>
+      </c>
+      <c r="D98" s="133">
+        <v>100</v>
+      </c>
+      <c r="E98" s="57" t="s">
         <v>421</v>
-      </c>
-      <c r="B98" s="163" t="s">
-        <v>326</v>
-      </c>
-      <c r="C98" s="151">
-        <v>0</v>
-      </c>
-      <c r="D98" s="166">
-        <v>100</v>
-      </c>
-      <c r="E98" s="57" t="s">
-        <v>422</v>
       </c>
       <c r="F98" s="58">
         <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="162"/>
-      <c r="B99" s="164"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="167"/>
+      <c r="A99" s="128"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="134"/>
       <c r="E99" s="65"/>
       <c r="F99" s="66"/>
     </row>
     <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="156" t="s">
+      <c r="A100" s="121" t="s">
+        <v>422</v>
+      </c>
+      <c r="B100" s="121" t="s">
         <v>423</v>
       </c>
-      <c r="B100" s="156" t="s">
-        <v>424</v>
-      </c>
-      <c r="C100" s="158">
-        <v>0</v>
-      </c>
-      <c r="D100" s="160">
+      <c r="C100" s="123">
+        <v>0</v>
+      </c>
+      <c r="D100" s="125">
         <v>50</v>
       </c>
       <c r="E100" s="57"/>
       <c r="F100" s="58"/>
     </row>
     <row r="101" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="157"/>
-      <c r="B101" s="157"/>
-      <c r="C101" s="159"/>
-      <c r="D101" s="161"/>
+      <c r="A101" s="122"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="124"/>
+      <c r="D101" s="126"/>
       <c r="E101" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F101" s="68">
         <v>98</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="103" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -7734,6 +7737,52 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B64"/>
+    <mergeCell ref="C40:C64"/>
+    <mergeCell ref="D40:D64"/>
+    <mergeCell ref="A9:A39"/>
+    <mergeCell ref="B9:B39"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D9:D39"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
     <mergeCell ref="E93:F94"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="B95:B96"/>
@@ -7743,52 +7792,6 @@
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="D66:D75"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B64"/>
-    <mergeCell ref="C40:C64"/>
-    <mergeCell ref="D40:D64"/>
-    <mergeCell ref="A9:A39"/>
-    <mergeCell ref="B9:B39"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D9:D39"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7800,8 +7803,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7838,7 +7841,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7857,7 +7860,7 @@
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -7881,7 +7884,7 @@
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -7905,7 +7908,7 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -7929,7 +7932,7 @@
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>20</v>
@@ -7953,7 +7956,7 @@
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -7977,7 +7980,7 @@
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>23</v>
@@ -8001,7 +8004,7 @@
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
@@ -8133,7 +8136,7 @@
     </row>
     <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
@@ -8184,7 +8187,7 @@
     </row>
     <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -8200,7 +8203,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -8218,10 +8221,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8247,13 +8250,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -8298,7 +8301,7 @@
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>118</v>
@@ -8310,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="108"/>
@@ -8412,12 +8415,12 @@
     </row>
     <row r="10" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G10" s="108"/>
     </row>
@@ -8429,7 +8432,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>70</v>
@@ -8451,7 +8454,7 @@
         <v>83</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>245</v>
@@ -8465,7 +8468,7 @@
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -8479,21 +8482,17 @@
       <c r="A15" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="109" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
-        <v>466</v>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="109" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G2:G12"/>
-    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A16:XFD16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8505,8 +8504,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8528,10 +8527,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>253</v>
@@ -8539,7 +8538,7 @@
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>121</v>
@@ -8613,7 +8612,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>100</v>
@@ -8703,7 +8702,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -8734,10 +8733,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B439655D-7B77-3241-98F2-392F99175C45}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8760,10 +8759,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>253</v>
@@ -8791,7 +8790,7 @@
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -8866,7 +8865,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>109</v>
@@ -8896,7 +8895,7 @@
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>125</v>
@@ -8918,7 +8917,7 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -8931,19 +8930,26 @@
       <c r="A12" t="s">
         <v>229</v>
       </c>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="110" t="s">
         <v>254</v>
       </c>
     </row>
+    <row r="14" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="109" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="F2:F9"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{51103764-FEE0-1B43-B9AE-E2BE2EE789F1}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://jamanetwork.com/journals/jamainternalmedicine/fullarticle/414155" xr:uid="{E9CFADFE-7C2A-7F40-AE47-B6F06E855F43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
@@ -8955,7 +8961,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8980,10 +8986,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="105" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F1" s="104" t="s">
         <v>248</v>
@@ -8995,13 +9001,13 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>251</v>
@@ -9013,13 +9019,13 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>251</v>
@@ -9031,13 +9037,13 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>251</v>
@@ -9045,17 +9051,17 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>251</v>
@@ -9067,13 +9073,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>481</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>251</v>
@@ -9081,17 +9087,17 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>251</v>
@@ -9103,13 +9109,13 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>251</v>
@@ -9117,17 +9123,17 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>251</v>
@@ -9139,13 +9145,13 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>251</v>
@@ -9161,7 +9167,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" s="20">
         <v>0</v>
@@ -9177,12 +9183,12 @@
     </row>
     <row r="14" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="111" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -9201,10 +9207,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412F9042-7286-FD43-86C5-30519F0C2582}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9227,10 +9233,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="105" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>253</v>
@@ -9258,7 +9264,7 @@
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -9276,7 +9282,7 @@
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>96</v>
@@ -9294,7 +9300,7 @@
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
@@ -9312,7 +9318,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>98</v>
@@ -9366,7 +9372,7 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>100</v>
@@ -9406,7 +9412,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -9419,15 +9425,23 @@
       <c r="A13" t="s">
         <v>229</v>
       </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="109" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:F10"/>
+    <mergeCell ref="A15:XFD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9439,8 +9453,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9467,10 +9481,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E1" s="105" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>253</v>
@@ -9478,22 +9492,22 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9504,10 +9518,10 @@
         <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>94</v>
@@ -9519,13 +9533,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>93</v>
@@ -9540,13 +9554,13 @@
         <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="108"/>
     </row>
@@ -9558,31 +9572,31 @@
         <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="108"/>
     </row>
@@ -9594,10 +9608,10 @@
         <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>244</v>
@@ -9606,37 +9620,37 @@
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>244</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="108"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>243</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="108"/>
     </row>
@@ -9648,13 +9662,13 @@
         <v>252</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>244</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="108"/>
     </row>
@@ -9666,13 +9680,13 @@
         <v>192</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>244</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F12" s="108"/>
     </row>
@@ -9682,7 +9696,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -9698,7 +9712,7 @@
     </row>
     <row r="16" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9757,22 +9771,22 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" s="20">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9783,7 +9797,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
@@ -9798,10 +9812,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="20">
         <v>0</v>
@@ -9819,13 +9833,13 @@
         <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="108"/>
     </row>
@@ -9837,31 +9851,31 @@
         <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="20">
         <v>0</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="20">
         <v>0</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="108"/>
     </row>
@@ -9873,7 +9887,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" s="20">
         <v>0</v>
@@ -9885,13 +9899,13 @@
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>244</v>
@@ -9903,13 +9917,13 @@
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>243</v>
@@ -9927,7 +9941,7 @@
         <v>252</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>244</v>
@@ -9945,7 +9959,7 @@
         <v>192</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>244</v>
@@ -9962,7 +9976,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -9978,7 +9992,7 @@
     </row>
     <row r="16" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/dietaryindex_SCORING_ALGORITHM.xlsx
+++ b/dietaryindex_SCORING_ALGORITHM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex publication/Formal_publication/Major revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Emory University - Ph.D./dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E07A8-75EE-424B-A5EF-D180D4B1310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B1BF9-C6BC-3140-B2AA-5E6954FFB5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="2840" windowWidth="26000" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="500" windowWidth="25960" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2020" sheetId="18" r:id="rId1"/>
@@ -2593,6 +2593,171 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2604,171 +2769,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6486,31 +6486,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="119" t="s">
         <v>310</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="166"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
+      <c r="A2" s="120"/>
       <c r="B2" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" s="29" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="26" t="s">
         <v>314</v>
       </c>
@@ -6528,13 +6528,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="130">
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -6546,9 +6546,9 @@
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="160"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="33" t="s">
         <v>323</v>
       </c>
@@ -6556,16 +6556,16 @@
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="117" t="s">
         <v>327</v>
       </c>
       <c r="E6" s="92" t="s">
@@ -6576,10 +6576,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="158"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="94" t="s">
         <v>329</v>
       </c>
@@ -6588,10 +6588,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="158"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="94" t="s">
         <v>330</v>
       </c>
@@ -6600,16 +6600,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="C9" s="137">
-        <v>0</v>
-      </c>
-      <c r="D9" s="137" t="s">
+      <c r="C9" s="130">
+        <v>0</v>
+      </c>
+      <c r="D9" s="130" t="s">
         <v>333</v>
       </c>
       <c r="E9" s="34" t="s">
@@ -6620,10 +6620,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="36" t="s">
         <v>335</v>
       </c>
@@ -6632,10 +6632,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="136"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="36" t="s">
         <v>336</v>
       </c>
@@ -6644,18 +6644,18 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="136"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="36" t="s">
         <v>337</v>
       </c>
@@ -6664,10 +6664,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="36" t="s">
         <v>338</v>
       </c>
@@ -6676,10 +6676,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="36" t="s">
         <v>339</v>
       </c>
@@ -6688,10 +6688,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="36" t="s">
         <v>340</v>
       </c>
@@ -6700,10 +6700,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="36" t="s">
         <v>341</v>
       </c>
@@ -6712,10 +6712,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="36" t="s">
         <v>342</v>
       </c>
@@ -6724,10 +6724,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="136"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="36" t="s">
         <v>343</v>
       </c>
@@ -6736,10 +6736,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="136"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="36" t="s">
         <v>344</v>
       </c>
@@ -6748,10 +6748,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="136"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="36" t="s">
         <v>345</v>
       </c>
@@ -6760,10 +6760,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="36" t="s">
         <v>346</v>
       </c>
@@ -6772,10 +6772,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="36" t="s">
         <v>347</v>
       </c>
@@ -6784,10 +6784,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="136"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="36" t="s">
         <v>348</v>
       </c>
@@ -6796,10 +6796,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="136"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="36" t="s">
         <v>349</v>
       </c>
@@ -6808,10 +6808,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="36" t="s">
         <v>350</v>
       </c>
@@ -6820,10 +6820,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="136"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="36" t="s">
         <v>351</v>
       </c>
@@ -6832,10 +6832,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="36" t="s">
         <v>352</v>
       </c>
@@ -6844,10 +6844,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="136"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="36" t="s">
         <v>353</v>
       </c>
@@ -6856,10 +6856,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="36" t="s">
         <v>354</v>
       </c>
@@ -6868,10 +6868,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="136"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="36" t="s">
         <v>355</v>
       </c>
@@ -6880,10 +6880,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="136"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="36" t="s">
         <v>356</v>
       </c>
@@ -6892,10 +6892,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="136"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="36" t="s">
         <v>357</v>
       </c>
@@ -6904,20 +6904,20 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="136"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="36"/>
       <c r="F34" s="38"/>
       <c r="G34" s="8"/>
       <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="136"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="36" t="s">
         <v>358</v>
       </c>
@@ -6926,18 +6926,18 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="136"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="36"/>
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="136"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="36" t="s">
         <v>359</v>
       </c>
@@ -6946,10 +6946,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="36" t="s">
         <v>360</v>
       </c>
@@ -6958,10 +6958,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="161"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
       <c r="E39" s="40" t="s">
         <v>361</v>
       </c>
@@ -6970,16 +6970,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="135" t="s">
+      <c r="A40" s="132" t="s">
         <v>362</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="C40" s="137">
-        <v>0</v>
-      </c>
-      <c r="D40" s="137" t="s">
+      <c r="C40" s="130">
+        <v>0</v>
+      </c>
+      <c r="D40" s="130" t="s">
         <v>364</v>
       </c>
       <c r="E40" s="42" t="s">
@@ -6990,18 +6990,18 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="136"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="44"/>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="136"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="44" t="s">
         <v>366</v>
       </c>
@@ -7010,10 +7010,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="136"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="44" t="s">
         <v>367</v>
       </c>
@@ -7023,9 +7023,9 @@
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="44" t="s">
         <v>368</v>
       </c>
@@ -7035,9 +7035,9 @@
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="44" t="s">
         <v>369</v>
       </c>
@@ -7047,9 +7047,9 @@
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="44" t="s">
         <v>370</v>
       </c>
@@ -7059,9 +7059,9 @@
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="44" t="s">
         <v>371</v>
       </c>
@@ -7071,9 +7071,9 @@
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="44" t="s">
         <v>372</v>
       </c>
@@ -7083,17 +7083,17 @@
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
       <c r="E49" s="44"/>
       <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
       <c r="E50" s="44" t="s">
         <v>373</v>
       </c>
@@ -7103,9 +7103,9 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
       <c r="E51" s="44" t="s">
         <v>374</v>
       </c>
@@ -7115,9 +7115,9 @@
     </row>
     <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="44" t="s">
         <v>375</v>
       </c>
@@ -7127,9 +7127,9 @@
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
       <c r="E53" s="44" t="s">
         <v>376</v>
       </c>
@@ -7139,9 +7139,9 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
       <c r="E54" s="44" t="s">
         <v>377</v>
       </c>
@@ -7151,17 +7151,17 @@
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
       <c r="E55" s="44"/>
       <c r="F55" s="37"/>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
       <c r="E56" s="44" t="s">
         <v>378</v>
       </c>
@@ -7171,25 +7171,25 @@
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
       <c r="E57" s="44"/>
       <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
       <c r="E58" s="44"/>
       <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
       <c r="E59" s="44" t="s">
         <v>379</v>
       </c>
@@ -7199,9 +7199,9 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
       <c r="E60" s="44" t="s">
         <v>380</v>
       </c>
@@ -7211,9 +7211,9 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
       <c r="E61" s="44" t="s">
         <v>381</v>
       </c>
@@ -7223,25 +7223,25 @@
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
       <c r="E62" s="44"/>
       <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="44"/>
       <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="160"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="46"/>
       <c r="F64" s="47"/>
     </row>
@@ -7258,22 +7258,22 @@
       <c r="D65" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="E65" s="152" t="s">
+      <c r="E65" s="135" t="s">
         <v>386</v>
       </c>
-      <c r="F65" s="153"/>
+      <c r="F65" s="136"/>
     </row>
     <row r="66" spans="1:6" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="B66" s="119" t="s">
+      <c r="B66" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="C66" s="154" t="s">
+      <c r="C66" s="139" t="s">
         <v>389</v>
       </c>
-      <c r="D66" s="157" t="s">
+      <c r="D66" s="117" t="s">
         <v>390</v>
       </c>
       <c r="E66" s="49" t="s">
@@ -7284,18 +7284,18 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="144"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="158"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="118"/>
       <c r="E67" s="51"/>
       <c r="F67" s="52"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="144"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="158"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="118"/>
       <c r="E68" s="51" t="s">
         <v>392</v>
       </c>
@@ -7304,18 +7304,18 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="144"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="158"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="118"/>
       <c r="E69" s="51"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="144"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="158"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="118"/>
       <c r="E70" s="51" t="s">
         <v>393</v>
       </c>
@@ -7324,10 +7324,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="144"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="158"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="51" t="s">
         <v>394</v>
       </c>
@@ -7336,18 +7336,18 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="144"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="158"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="118"/>
       <c r="E72" s="51"/>
       <c r="F72" s="52"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="144"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="155"/>
-      <c r="D73" s="158"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="118"/>
       <c r="E73" s="51" t="s">
         <v>395</v>
       </c>
@@ -7356,18 +7356,18 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="144"/>
-      <c r="B74" s="145"/>
-      <c r="C74" s="155"/>
-      <c r="D74" s="158"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="118"/>
       <c r="E74" s="51"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
-      <c r="B75" s="120"/>
-      <c r="C75" s="156"/>
-      <c r="D75" s="159"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="142"/>
       <c r="E75" s="53" t="s">
         <v>396</v>
       </c>
@@ -7376,26 +7376,26 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="117" t="s">
+      <c r="A76" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="B76" s="119" t="s">
+      <c r="B76" s="115" t="s">
         <v>398</v>
       </c>
-      <c r="C76" s="149" t="s">
+      <c r="C76" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="D76" s="146" t="s">
+      <c r="D76" s="143" t="s">
         <v>399</v>
       </c>
       <c r="E76" s="81"/>
       <c r="F76" s="82"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="144"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="150"/>
-      <c r="D77" s="147"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="144"/>
       <c r="E77" s="83" t="s">
         <v>400</v>
       </c>
@@ -7404,10 +7404,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="148"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="138"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="85" t="s">
         <v>401</v>
       </c>
@@ -7416,16 +7416,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="117" t="s">
+      <c r="A79" s="113" t="s">
         <v>402</v>
       </c>
-      <c r="B79" s="119" t="s">
+      <c r="B79" s="115" t="s">
         <v>403</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="D79" s="146" t="s">
+      <c r="D79" s="143" t="s">
         <v>405</v>
       </c>
       <c r="E79" s="87" t="s">
@@ -7436,32 +7436,32 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="144"/>
-      <c r="B80" s="145"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="147"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="144"/>
       <c r="E80" s="83"/>
       <c r="F80" s="89"/>
     </row>
     <row r="81" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="148"/>
+      <c r="A81" s="137"/>
+      <c r="B81" s="138"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="145"/>
       <c r="E81" s="85"/>
       <c r="F81" s="90"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="127" t="s">
+      <c r="A82" s="149" t="s">
         <v>407</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="141">
-        <v>0</v>
-      </c>
-      <c r="D82" s="141" t="s">
+      <c r="C82" s="153">
+        <v>0</v>
+      </c>
+      <c r="D82" s="153" t="s">
         <v>409</v>
       </c>
       <c r="E82" s="96" t="s">
@@ -7472,19 +7472,19 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="139"/>
-      <c r="B83" s="140"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
+      <c r="A83" s="150"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="98"/>
       <c r="F83" s="99"/>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="139"/>
-      <c r="B84" s="140"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
+      <c r="A84" s="150"/>
+      <c r="B84" s="152"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="98" t="s">
         <v>411</v>
       </c>
@@ -7493,10 +7493,10 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="139"/>
-      <c r="B85" s="140"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
+      <c r="A85" s="150"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="98" t="s">
         <v>412</v>
       </c>
@@ -7505,10 +7505,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="139"/>
-      <c r="B86" s="140"/>
-      <c r="C86" s="142"/>
-      <c r="D86" s="143"/>
+      <c r="A86" s="150"/>
+      <c r="B86" s="152"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="155"/>
       <c r="E86" s="100" t="s">
         <v>413</v>
       </c>
@@ -7517,16 +7517,16 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="132" t="s">
         <v>414</v>
       </c>
-      <c r="B87" s="135" t="s">
+      <c r="B87" s="132" t="s">
         <v>415</v>
       </c>
-      <c r="C87" s="137">
-        <v>0</v>
-      </c>
-      <c r="D87" s="137" t="s">
+      <c r="C87" s="130">
+        <v>0</v>
+      </c>
+      <c r="D87" s="130" t="s">
         <v>416</v>
       </c>
       <c r="E87" s="57" t="s">
@@ -7537,10 +7537,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="136"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
+      <c r="A88" s="133"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
       <c r="E88" s="59" t="s">
         <v>418</v>
       </c>
@@ -7549,18 +7549,18 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="136"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="138"/>
-      <c r="D89" s="138"/>
+      <c r="A89" s="133"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
       <c r="E89" s="59"/>
       <c r="F89" s="60"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="136"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="138"/>
+      <c r="A90" s="133"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
       <c r="E90" s="61" t="s">
         <v>419</v>
       </c>
@@ -7569,10 +7569,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="136"/>
-      <c r="B91" s="136"/>
-      <c r="C91" s="138"/>
-      <c r="D91" s="138"/>
+      <c r="A91" s="133"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="61"/>
       <c r="F91" s="62"/>
     </row>
@@ -7595,42 +7595,42 @@
       <c r="F92" s="71"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="B93" s="119" t="s">
+      <c r="B93" s="115" t="s">
         <v>431</v>
       </c>
-      <c r="C93" s="119" t="s">
+      <c r="C93" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="D93" s="119" t="s">
+      <c r="D93" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="E93" s="113" t="s">
+      <c r="E93" s="168" t="s">
         <v>434</v>
       </c>
-      <c r="F93" s="114"/>
+      <c r="F93" s="169"/>
     </row>
     <row r="94" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="118"/>
-      <c r="B94" s="120"/>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="115"/>
-      <c r="F94" s="116"/>
+      <c r="A94" s="137"/>
+      <c r="B94" s="138"/>
+      <c r="C94" s="138"/>
+      <c r="D94" s="138"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="171"/>
     </row>
     <row r="95" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="113" t="s">
         <v>435</v>
       </c>
-      <c r="B95" s="119" t="s">
+      <c r="B95" s="115" t="s">
         <v>436</v>
       </c>
-      <c r="C95" s="119" t="s">
+      <c r="C95" s="115" t="s">
         <v>437</v>
       </c>
-      <c r="D95" s="119" t="s">
+      <c r="D95" s="115" t="s">
         <v>438</v>
       </c>
       <c r="E95" s="72" t="s">
@@ -7639,10 +7639,10 @@
       <c r="F95" s="73"/>
     </row>
     <row r="96" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="118"/>
-      <c r="B96" s="120"/>
-      <c r="C96" s="120"/>
-      <c r="D96" s="120"/>
+      <c r="A96" s="137"/>
+      <c r="B96" s="138"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="138"/>
       <c r="E96" s="74" t="s">
         <v>440</v>
       </c>
@@ -7669,16 +7669,16 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="127" t="s">
+      <c r="A98" s="149" t="s">
         <v>420</v>
       </c>
-      <c r="B98" s="129" t="s">
+      <c r="B98" s="163" t="s">
         <v>325</v>
       </c>
-      <c r="C98" s="131">
-        <v>0</v>
-      </c>
-      <c r="D98" s="133">
+      <c r="C98" s="151">
+        <v>0</v>
+      </c>
+      <c r="D98" s="166">
         <v>100</v>
       </c>
       <c r="E98" s="57" t="s">
@@ -7689,34 +7689,34 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="128"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="132"/>
-      <c r="D99" s="134"/>
+      <c r="A99" s="162"/>
+      <c r="B99" s="164"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="167"/>
       <c r="E99" s="65"/>
       <c r="F99" s="66"/>
     </row>
     <row r="100" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="121" t="s">
+      <c r="A100" s="156" t="s">
         <v>422</v>
       </c>
-      <c r="B100" s="121" t="s">
+      <c r="B100" s="156" t="s">
         <v>423</v>
       </c>
-      <c r="C100" s="123">
-        <v>0</v>
-      </c>
-      <c r="D100" s="125">
+      <c r="C100" s="158">
+        <v>0</v>
+      </c>
+      <c r="D100" s="160">
         <v>50</v>
       </c>
       <c r="E100" s="57"/>
       <c r="F100" s="58"/>
     </row>
     <row r="101" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="122"/>
-      <c r="B101" s="122"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="126"/>
+      <c r="A101" s="157"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="159"/>
+      <c r="D101" s="161"/>
       <c r="E101" s="67" t="s">
         <v>424</v>
       </c>
@@ -7737,6 +7737,52 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E93:F94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B64"/>
+    <mergeCell ref="C40:C64"/>
+    <mergeCell ref="D40:D64"/>
+    <mergeCell ref="A9:A39"/>
+    <mergeCell ref="B9:B39"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D9:D39"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
@@ -7746,52 +7792,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B64"/>
-    <mergeCell ref="C40:C64"/>
-    <mergeCell ref="D40:D64"/>
-    <mergeCell ref="A9:A39"/>
-    <mergeCell ref="B9:B39"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D9:D39"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="D66:D75"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E93:F94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8223,8 +8223,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8504,7 +8504,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
